--- a/docs/クライテリア項目一覧.xlsx
+++ b/docs/クライテリア項目一覧.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\new-license-apply\criteria-list\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D16AB25-1DD1-4277-8176-09FB4742E95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12225" tabRatio="530"/>
+    <workbookView xWindow="1590" yWindow="1275" windowWidth="21555" windowHeight="11775" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -18,17 +24,27 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Exitクライテリア!$L$1:$AM$217</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>安藤　洋幸</author>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,12 +64,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>安藤　洋幸</author>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="463">
   <si>
     <t>調達計画</t>
     <rPh sb="0" eb="2">
@@ -5665,17 +5681,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>2018年8月14日</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -5751,22 +5756,18 @@
   </si>
   <si>
     <t>第1.1版</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クライテリア項目一覧/利用ガイド©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5954,12 +5955,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -8272,7 +8267,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -8309,492 +8304,492 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="143">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="143">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="144" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8990,217 +8985,217 @@
     <xf numFmtId="0" fontId="22" fillId="26" borderId="145" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="146" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="146" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="151" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9395,391 +9390,391 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="151" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="152" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -9849,7 +9844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -9881,19 +9876,19 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11041,65 +11036,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="57" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="56" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="55" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="54" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="59" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="58" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyFill="1" applyBorder="1">
@@ -11111,7 +11106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11665,566 +11660,566 @@
     </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="Calc Currency (0)" xfId="25"/>
-    <cellStyle name="Header1" xfId="26"/>
-    <cellStyle name="Header2" xfId="27"/>
-    <cellStyle name="Header2 2" xfId="28"/>
-    <cellStyle name="Header2 2 10" xfId="29"/>
-    <cellStyle name="Header2 2 10 2" xfId="30"/>
-    <cellStyle name="Header2 2 11" xfId="31"/>
-    <cellStyle name="Header2 2 11 2" xfId="32"/>
-    <cellStyle name="Header2 2 12" xfId="33"/>
-    <cellStyle name="Header2 2 12 2" xfId="34"/>
-    <cellStyle name="Header2 2 13" xfId="35"/>
-    <cellStyle name="Header2 2 2" xfId="36"/>
-    <cellStyle name="Header2 2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 3" xfId="39"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="40"/>
-    <cellStyle name="Header2 2 2 4" xfId="41"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="42"/>
-    <cellStyle name="Header2 2 2 5" xfId="43"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="44"/>
-    <cellStyle name="Header2 2 2 6" xfId="45"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="46"/>
-    <cellStyle name="Header2 2 2 7" xfId="47"/>
-    <cellStyle name="Header2 2 3" xfId="48"/>
-    <cellStyle name="Header2 2 4" xfId="49"/>
-    <cellStyle name="Header2 2 4 2" xfId="50"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 3" xfId="52"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="53"/>
-    <cellStyle name="Header2 2 4 4" xfId="54"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="55"/>
-    <cellStyle name="Header2 2 4 5" xfId="56"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="57"/>
-    <cellStyle name="Header2 2 4 6" xfId="58"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="59"/>
-    <cellStyle name="Header2 2 4 7" xfId="60"/>
-    <cellStyle name="Header2 2 5" xfId="61"/>
-    <cellStyle name="Header2 2 5 2" xfId="62"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 3" xfId="64"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="65"/>
-    <cellStyle name="Header2 2 5 4" xfId="66"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="67"/>
-    <cellStyle name="Header2 2 5 5" xfId="68"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="69"/>
-    <cellStyle name="Header2 2 5 6" xfId="70"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="71"/>
-    <cellStyle name="Header2 2 5 7" xfId="72"/>
-    <cellStyle name="Header2 2 6" xfId="73"/>
-    <cellStyle name="Header2 2 6 2" xfId="74"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 3" xfId="76"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="77"/>
-    <cellStyle name="Header2 2 6 4" xfId="78"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="79"/>
-    <cellStyle name="Header2 2 6 5" xfId="80"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="81"/>
-    <cellStyle name="Header2 2 6 6" xfId="82"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="83"/>
-    <cellStyle name="Header2 2 6 7" xfId="84"/>
-    <cellStyle name="Header2 2 7" xfId="85"/>
-    <cellStyle name="Header2 2 7 2" xfId="86"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 3" xfId="88"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="89"/>
-    <cellStyle name="Header2 2 7 4" xfId="90"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="91"/>
-    <cellStyle name="Header2 2 7 5" xfId="92"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="93"/>
-    <cellStyle name="Header2 2 7 6" xfId="94"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="95"/>
-    <cellStyle name="Header2 2 7 7" xfId="96"/>
-    <cellStyle name="Header2 2 8" xfId="97"/>
-    <cellStyle name="Header2 2 8 2" xfId="98"/>
-    <cellStyle name="Header2 2 9" xfId="99"/>
-    <cellStyle name="Header2 2 9 2" xfId="100"/>
-    <cellStyle name="Header2 3" xfId="101"/>
-    <cellStyle name="Header2 3 10" xfId="102"/>
-    <cellStyle name="Header2 3 10 2" xfId="103"/>
-    <cellStyle name="Header2 3 11" xfId="104"/>
-    <cellStyle name="Header2 3 11 2" xfId="105"/>
-    <cellStyle name="Header2 3 12" xfId="106"/>
-    <cellStyle name="Header2 3 2" xfId="107"/>
-    <cellStyle name="Header2 3 2 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 3" xfId="110"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="111"/>
-    <cellStyle name="Header2 3 2 4" xfId="112"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="113"/>
-    <cellStyle name="Header2 3 2 5" xfId="114"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="115"/>
-    <cellStyle name="Header2 3 2 6" xfId="116"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="117"/>
-    <cellStyle name="Header2 3 2 7" xfId="118"/>
-    <cellStyle name="Header2 3 3" xfId="119"/>
-    <cellStyle name="Header2 3 3 2" xfId="120"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 3" xfId="122"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="123"/>
-    <cellStyle name="Header2 3 3 4" xfId="124"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="125"/>
-    <cellStyle name="Header2 3 3 5" xfId="126"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="127"/>
-    <cellStyle name="Header2 3 3 6" xfId="128"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="129"/>
-    <cellStyle name="Header2 3 3 7" xfId="130"/>
-    <cellStyle name="Header2 3 4" xfId="131"/>
-    <cellStyle name="Header2 3 4 2" xfId="132"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 3" xfId="134"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="135"/>
-    <cellStyle name="Header2 3 4 4" xfId="136"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="137"/>
-    <cellStyle name="Header2 3 4 5" xfId="138"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="139"/>
-    <cellStyle name="Header2 3 4 6" xfId="140"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="141"/>
-    <cellStyle name="Header2 3 4 7" xfId="142"/>
-    <cellStyle name="Header2 3 5" xfId="143"/>
-    <cellStyle name="Header2 3 5 2" xfId="144"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 3" xfId="146"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="147"/>
-    <cellStyle name="Header2 3 5 4" xfId="148"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="149"/>
-    <cellStyle name="Header2 3 5 5" xfId="150"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="151"/>
-    <cellStyle name="Header2 3 5 6" xfId="152"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="153"/>
-    <cellStyle name="Header2 3 5 7" xfId="154"/>
-    <cellStyle name="Header2 3 6" xfId="155"/>
-    <cellStyle name="Header2 3 6 2" xfId="156"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 3" xfId="158"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="159"/>
-    <cellStyle name="Header2 3 6 4" xfId="160"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="161"/>
-    <cellStyle name="Header2 3 6 5" xfId="162"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="163"/>
-    <cellStyle name="Header2 3 6 6" xfId="164"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="165"/>
-    <cellStyle name="Header2 3 6 7" xfId="166"/>
-    <cellStyle name="Header2 3 7" xfId="167"/>
-    <cellStyle name="Header2 3 7 2" xfId="168"/>
-    <cellStyle name="Header2 3 8" xfId="169"/>
-    <cellStyle name="Header2 3 8 2" xfId="170"/>
-    <cellStyle name="Header2 3 9" xfId="171"/>
-    <cellStyle name="Header2 3 9 2" xfId="172"/>
-    <cellStyle name="Normal_#18-Internet" xfId="173"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 4" xfId="546"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="1"/>
-    <cellStyle name="標準_~6362950 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="546" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12236,6 +12231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -12258,7 +12256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12322,52 +12326,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6410325"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12388,7 +12346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 15"/>
+        <xdr:cNvPr id="2" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12453,7 +12417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 16"/>
+        <xdr:cNvPr id="3" name="AutoShape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12518,7 +12488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 17"/>
+        <xdr:cNvPr id="4" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12583,7 +12559,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 29"/>
+        <xdr:cNvPr id="5" name="Line 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -12636,7 +12618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6358" name="Line 16"/>
+        <xdr:cNvPr id="6358" name="Line 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -12684,7 +12672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 15"/>
+        <xdr:cNvPr id="5" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12749,7 +12743,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 17"/>
+        <xdr:cNvPr id="6" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12814,7 +12814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 16"/>
+        <xdr:cNvPr id="7" name="AutoShape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12868,7 +12874,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12910,7 +12916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12943,9 +12949,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12978,6 +13001,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13153,7 +13193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13161,12 +13201,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="381"/>
       <c r="B1" s="382"/>
       <c r="C1" s="383"/>
@@ -13203,7 +13243,7 @@
       <c r="AH1" s="381"/>
       <c r="AI1" s="381"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="385"/>
       <c r="B2" s="381"/>
       <c r="C2" s="381"/>
@@ -13240,7 +13280,7 @@
       <c r="AH2" s="381"/>
       <c r="AI2" s="381"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="381"/>
       <c r="B3" s="381"/>
       <c r="C3" s="381"/>
@@ -13277,7 +13317,7 @@
       <c r="AH3" s="381"/>
       <c r="AI3" s="381"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="381"/>
       <c r="B4" s="381"/>
       <c r="C4" s="381"/>
@@ -13314,7 +13354,7 @@
       <c r="AH4" s="381"/>
       <c r="AI4" s="381"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="381"/>
       <c r="B5" s="381"/>
       <c r="C5" s="381"/>
@@ -13351,7 +13391,7 @@
       <c r="AH5" s="381"/>
       <c r="AI5" s="381"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="381"/>
       <c r="B6" s="381"/>
       <c r="C6" s="381"/>
@@ -13388,7 +13428,7 @@
       <c r="AH6" s="381"/>
       <c r="AI6" s="381"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="381"/>
       <c r="B7" s="381"/>
       <c r="C7" s="381"/>
@@ -13425,7 +13465,7 @@
       <c r="AH7" s="381"/>
       <c r="AI7" s="381"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="381"/>
       <c r="B8" s="381"/>
       <c r="C8" s="381"/>
@@ -13462,7 +13502,7 @@
       <c r="AH8" s="381"/>
       <c r="AI8" s="381"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="381"/>
       <c r="B9" s="381"/>
       <c r="C9" s="381"/>
@@ -13499,7 +13539,7 @@
       <c r="AH9" s="381"/>
       <c r="AI9" s="381"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="381"/>
       <c r="B10" s="381"/>
       <c r="C10" s="381"/>
@@ -13536,7 +13576,7 @@
       <c r="AH10" s="381"/>
       <c r="AI10" s="381"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="381"/>
       <c r="B11" s="381"/>
       <c r="C11" s="381"/>
@@ -13573,7 +13613,7 @@
       <c r="AH11" s="381"/>
       <c r="AI11" s="381"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="381"/>
       <c r="B12" s="381"/>
       <c r="C12" s="381"/>
@@ -13610,7 +13650,7 @@
       <c r="AH12" s="381"/>
       <c r="AI12" s="381"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="381"/>
       <c r="B13" s="381"/>
       <c r="C13" s="381"/>
@@ -13647,7 +13687,7 @@
       <c r="AH13" s="381"/>
       <c r="AI13" s="381"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="381"/>
       <c r="B14" s="381"/>
       <c r="C14" s="381"/>
@@ -13684,7 +13724,7 @@
       <c r="AH14" s="381"/>
       <c r="AI14" s="381"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="381"/>
       <c r="B15" s="381"/>
       <c r="C15" s="381"/>
@@ -13721,7 +13761,7 @@
       <c r="AH15" s="381"/>
       <c r="AI15" s="381"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="381"/>
       <c r="B16" s="381"/>
       <c r="C16" s="381"/>
@@ -13758,7 +13798,7 @@
       <c r="AH16" s="381"/>
       <c r="AI16" s="381"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="381"/>
       <c r="B17" s="381"/>
       <c r="C17" s="381"/>
@@ -13795,7 +13835,7 @@
       <c r="AH17" s="381"/>
       <c r="AI17" s="381"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="381"/>
       <c r="B18" s="381"/>
       <c r="C18" s="381"/>
@@ -13832,7 +13872,7 @@
       <c r="AH18" s="381"/>
       <c r="AI18" s="381"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="381"/>
       <c r="B19" s="381"/>
       <c r="C19" s="381"/>
@@ -13869,7 +13909,7 @@
       <c r="AH19" s="381"/>
       <c r="AI19" s="381"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="381"/>
       <c r="B20" s="381"/>
       <c r="C20" s="381"/>
@@ -13906,7 +13946,7 @@
       <c r="AH20" s="381"/>
       <c r="AI20" s="381"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="381"/>
       <c r="B21" s="381"/>
       <c r="C21" s="381"/>
@@ -13943,7 +13983,7 @@
       <c r="AH21" s="381"/>
       <c r="AI21" s="381"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="381"/>
       <c r="B22" s="381"/>
       <c r="C22" s="381"/>
@@ -13980,7 +14020,7 @@
       <c r="AH22" s="381"/>
       <c r="AI22" s="381"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="381"/>
       <c r="B23" s="381"/>
       <c r="C23" s="381"/>
@@ -13999,7 +14039,7 @@
       <c r="P23" s="381"/>
       <c r="Q23" s="381"/>
       <c r="R23" s="387" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S23" s="381"/>
       <c r="T23" s="381"/>
@@ -14019,7 +14059,7 @@
       <c r="AH23" s="381"/>
       <c r="AI23" s="381"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="381"/>
       <c r="B24" s="381"/>
       <c r="C24" s="381"/>
@@ -14056,7 +14096,7 @@
       <c r="AH24" s="381"/>
       <c r="AI24" s="381"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="381"/>
       <c r="B25" s="381"/>
       <c r="C25" s="381"/>
@@ -14075,7 +14115,7 @@
       <c r="P25" s="381"/>
       <c r="Q25" s="381"/>
       <c r="R25" s="388" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="S25" s="381"/>
       <c r="T25" s="381"/>
@@ -14095,7 +14135,7 @@
       <c r="AH25" s="381"/>
       <c r="AI25" s="381"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="381"/>
       <c r="B26" s="381"/>
       <c r="C26" s="381"/>
@@ -14132,7 +14172,7 @@
       <c r="AH26" s="381"/>
       <c r="AI26" s="381"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="381"/>
       <c r="B27" s="381"/>
       <c r="C27" s="381"/>
@@ -14169,7 +14209,7 @@
       <c r="AH27" s="381"/>
       <c r="AI27" s="381"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="381"/>
       <c r="B28" s="381"/>
       <c r="C28" s="381"/>
@@ -14206,7 +14246,7 @@
       <c r="AH28" s="381"/>
       <c r="AI28" s="381"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="381"/>
       <c r="B29" s="381"/>
       <c r="C29" s="381"/>
@@ -14243,7 +14283,7 @@
       <c r="AH29" s="381"/>
       <c r="AI29" s="381"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="381"/>
       <c r="B30" s="381"/>
       <c r="C30" s="381"/>
@@ -14279,7 +14319,7 @@
       <c r="AH30" s="381"/>
       <c r="AI30" s="381"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="381"/>
       <c r="B31" s="381"/>
       <c r="C31" s="381"/>
@@ -14316,7 +14356,7 @@
       <c r="AH31" s="381"/>
       <c r="AI31" s="381"/>
     </row>
-    <row r="32" spans="1:35" ht="21">
+    <row r="32" spans="1:35" ht="21" x14ac:dyDescent="0.15">
       <c r="A32" s="381"/>
       <c r="B32" s="381"/>
       <c r="C32" s="381"/>
@@ -14353,7 +14393,7 @@
       <c r="AH32" s="381"/>
       <c r="AI32" s="381"/>
     </row>
-    <row r="33" spans="1:35" ht="18.75">
+    <row r="33" spans="1:35" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="381"/>
       <c r="B33" s="381"/>
       <c r="C33" s="381"/>
@@ -14390,7 +14430,7 @@
       <c r="AH33" s="381"/>
       <c r="AI33" s="381"/>
     </row>
-    <row r="34" spans="1:35" ht="18.75">
+    <row r="34" spans="1:35" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="381"/>
       <c r="B34" s="381"/>
       <c r="C34" s="381"/>
@@ -14427,7 +14467,7 @@
       <c r="AH34" s="381"/>
       <c r="AI34" s="381"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="381"/>
       <c r="B35" s="381"/>
       <c r="C35" s="381"/>
@@ -14464,7 +14504,7 @@
       <c r="AH35" s="381"/>
       <c r="AI35" s="381"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="381"/>
       <c r="B36" s="381"/>
       <c r="C36" s="381"/>
@@ -14501,7 +14541,7 @@
       <c r="AH36" s="381"/>
       <c r="AI36" s="381"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="381"/>
       <c r="B37" s="381"/>
       <c r="C37" s="381"/>
@@ -14538,16 +14578,12 @@
       <c r="AH37" s="381"/>
       <c r="AI37" s="381"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="381"/>
-      <c r="B38" s="381" t="s">
-        <v>457</v>
-      </c>
+      <c r="B38" s="381"/>
       <c r="C38" s="381"/>
       <c r="D38" s="381"/>
-      <c r="E38" s="405" t="s">
-        <v>458</v>
-      </c>
+      <c r="E38" s="405"/>
       <c r="F38" s="405"/>
       <c r="G38" s="405"/>
       <c r="H38" s="405"/>
@@ -14560,9 +14596,7 @@
       <c r="O38" s="405"/>
       <c r="P38" s="405"/>
       <c r="Q38" s="405"/>
-      <c r="R38" s="401" t="s">
-        <v>459</v>
-      </c>
+      <c r="R38" s="401"/>
       <c r="T38" s="381"/>
       <c r="U38" s="381"/>
       <c r="V38" s="381"/>
@@ -14580,11 +14614,9 @@
       <c r="AH38" s="381"/>
       <c r="AI38" s="381"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="381"/>
-      <c r="B39" s="381" t="s">
-        <v>466</v>
-      </c>
+      <c r="B39" s="381"/>
       <c r="C39" s="381"/>
       <c r="D39" s="381"/>
       <c r="E39" s="400"/>
@@ -14619,7 +14651,7 @@
       <c r="AH39" s="381"/>
       <c r="AI39" s="381"/>
     </row>
-    <row r="40" spans="1:35" ht="6.75" customHeight="1">
+    <row r="40" spans="1:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="381"/>
       <c r="B40" s="381"/>
       <c r="C40" s="381"/>
@@ -14656,504 +14688,501 @@
       <c r="AH40" s="381"/>
       <c r="AI40" s="381"/>
     </row>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E38:Q38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU275"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="L1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="99"/>
     <col min="8" max="8" width="9.625" style="99" customWidth="1"/>
@@ -15181,7 +15210,7 @@
     <col min="39" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="21.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:42" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -15227,7 +15256,7 @@
       <c r="AK1" s="459"/>
       <c r="AL1" s="460"/>
     </row>
-    <row r="2" spans="1:42" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:42" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -15267,7 +15296,7 @@
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
-    <row r="3" spans="1:42" ht="13.5" customHeight="1">
+    <row r="3" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -15320,7 +15349,7 @@
       <c r="AO3" s="13"/>
       <c r="AP3" s="13"/>
     </row>
-    <row r="4" spans="1:42" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:42" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -15361,7 +15390,7 @@
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
     </row>
-    <row r="5" spans="1:42" ht="13.5" customHeight="1">
+    <row r="5" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -15420,7 +15449,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -15459,7 +15488,7 @@
       <c r="AK6" s="561"/>
       <c r="AL6" s="518"/>
     </row>
-    <row r="7" spans="1:42" ht="14.25">
+    <row r="7" spans="1:42" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -15521,7 +15550,7 @@
       <c r="AK7" s="493"/>
       <c r="AL7" s="496"/>
     </row>
-    <row r="8" spans="1:42" ht="14.25" thickBot="1">
+    <row r="8" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -15562,7 +15591,7 @@
       <c r="AK8" s="494"/>
       <c r="AL8" s="497"/>
     </row>
-    <row r="9" spans="1:42" ht="14.25" thickTop="1">
+    <row r="9" spans="1:42" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -15611,7 +15640,7 @@
       <c r="AK9" s="494"/>
       <c r="AL9" s="497"/>
     </row>
-    <row r="10" spans="1:42" ht="14.25" thickBot="1">
+    <row r="10" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -15659,7 +15688,7 @@
       <c r="AK10" s="495"/>
       <c r="AL10" s="498"/>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -15704,7 +15733,7 @@
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
     </row>
-    <row r="12" spans="1:42" ht="14.25" thickBot="1">
+    <row r="12" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -15717,7 +15746,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="297" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M12" s="298"/>
       <c r="N12" s="13"/>
@@ -15746,7 +15775,7 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -15786,7 +15815,7 @@
       <c r="AK13" s="13"/>
       <c r="AL13" s="13"/>
     </row>
-    <row r="14" spans="1:42" ht="14.25">
+    <row r="14" spans="1:42" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -15826,7 +15855,7 @@
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
     </row>
-    <row r="15" spans="1:42" ht="14.25" thickBot="1">
+    <row r="15" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -15866,7 +15895,7 @@
       <c r="AK15" s="13"/>
       <c r="AL15" s="13"/>
     </row>
-    <row r="16" spans="1:42" ht="14.25" thickBot="1">
+    <row r="16" spans="1:42" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="196" t="s">
         <v>411</v>
       </c>
@@ -15918,7 +15947,7 @@
       <c r="AK16" s="547"/>
       <c r="AL16" s="548"/>
     </row>
-    <row r="17" spans="1:38" ht="13.15" customHeight="1">
+    <row r="17" spans="1:38" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="255" t="s">
         <v>432</v>
       </c>
@@ -15998,7 +16027,7 @@
       <c r="AK17" s="550"/>
       <c r="AL17" s="551"/>
     </row>
-    <row r="18" spans="1:38" ht="13.9" customHeight="1" thickBot="1">
+    <row r="18" spans="1:38" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="251" t="s">
         <v>326</v>
       </c>
@@ -16060,7 +16089,7 @@
       <c r="AK18" s="550"/>
       <c r="AL18" s="551"/>
     </row>
-    <row r="19" spans="1:38" s="13" customFormat="1">
+    <row r="19" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="239" t="s">
         <v>309</v>
       </c>
@@ -16114,7 +16143,7 @@
       <c r="AK19" s="150"/>
       <c r="AL19" s="151"/>
     </row>
-    <row r="20" spans="1:38" s="13" customFormat="1">
+    <row r="20" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="242" t="s">
         <v>309</v>
       </c>
@@ -16164,7 +16193,7 @@
       <c r="AK20" s="134"/>
       <c r="AL20" s="135"/>
     </row>
-    <row r="21" spans="1:38" s="13" customFormat="1">
+    <row r="21" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="242" t="s">
         <v>309</v>
       </c>
@@ -16214,7 +16243,7 @@
       <c r="AK21" s="134"/>
       <c r="AL21" s="135"/>
     </row>
-    <row r="22" spans="1:38" s="13" customFormat="1">
+    <row r="22" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="242" t="s">
         <v>309</v>
       </c>
@@ -16266,7 +16295,7 @@
       <c r="AK22" s="134"/>
       <c r="AL22" s="135"/>
     </row>
-    <row r="23" spans="1:38" s="13" customFormat="1">
+    <row r="23" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="242" t="s">
         <v>309</v>
       </c>
@@ -16322,7 +16351,7 @@
       <c r="AK23" s="134"/>
       <c r="AL23" s="135"/>
     </row>
-    <row r="24" spans="1:38" s="13" customFormat="1">
+    <row r="24" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="242" t="s">
         <v>309</v>
       </c>
@@ -16370,7 +16399,7 @@
       <c r="AK24" s="134"/>
       <c r="AL24" s="135"/>
     </row>
-    <row r="25" spans="1:38" s="13" customFormat="1">
+    <row r="25" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="242" t="s">
         <v>309</v>
       </c>
@@ -16420,7 +16449,7 @@
       <c r="AK25" s="134"/>
       <c r="AL25" s="135"/>
     </row>
-    <row r="26" spans="1:38" s="13" customFormat="1">
+    <row r="26" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="242" t="s">
         <v>309</v>
       </c>
@@ -16476,7 +16505,7 @@
       <c r="AK26" s="134"/>
       <c r="AL26" s="135"/>
     </row>
-    <row r="27" spans="1:38" s="13" customFormat="1">
+    <row r="27" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="242" t="s">
         <v>309</v>
       </c>
@@ -16534,7 +16563,7 @@
       <c r="AK27" s="134"/>
       <c r="AL27" s="135"/>
     </row>
-    <row r="28" spans="1:38" s="13" customFormat="1">
+    <row r="28" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="242" t="s">
         <v>309</v>
       </c>
@@ -16592,7 +16621,7 @@
       <c r="AK28" s="134"/>
       <c r="AL28" s="135"/>
     </row>
-    <row r="29" spans="1:38" s="13" customFormat="1">
+    <row r="29" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="242" t="s">
         <v>309</v>
       </c>
@@ -16650,7 +16679,7 @@
       <c r="AK29" s="134"/>
       <c r="AL29" s="135"/>
     </row>
-    <row r="30" spans="1:38" s="13" customFormat="1">
+    <row r="30" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="242" t="s">
         <v>309</v>
       </c>
@@ -16700,7 +16729,7 @@
       <c r="AK30" s="134"/>
       <c r="AL30" s="135"/>
     </row>
-    <row r="31" spans="1:38" s="13" customFormat="1">
+    <row r="31" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="242"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53" t="s">
@@ -16748,7 +16777,7 @@
       <c r="AK31" s="134"/>
       <c r="AL31" s="135"/>
     </row>
-    <row r="32" spans="1:38" s="13" customFormat="1">
+    <row r="32" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="242" t="s">
         <v>309</v>
       </c>
@@ -16804,7 +16833,7 @@
       <c r="AK32" s="134"/>
       <c r="AL32" s="135"/>
     </row>
-    <row r="33" spans="1:38" s="13" customFormat="1">
+    <row r="33" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="242" t="s">
         <v>309</v>
       </c>
@@ -16862,7 +16891,7 @@
       <c r="AK33" s="134"/>
       <c r="AL33" s="135"/>
     </row>
-    <row r="34" spans="1:38" s="13" customFormat="1">
+    <row r="34" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="242" t="s">
         <v>309</v>
       </c>
@@ -16920,7 +16949,7 @@
       <c r="AK34" s="134"/>
       <c r="AL34" s="135"/>
     </row>
-    <row r="35" spans="1:38" s="13" customFormat="1">
+    <row r="35" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="242" t="s">
         <v>309</v>
       </c>
@@ -16968,7 +16997,7 @@
       <c r="AK35" s="134"/>
       <c r="AL35" s="135"/>
     </row>
-    <row r="36" spans="1:38" s="13" customFormat="1">
+    <row r="36" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="242" t="s">
         <v>309</v>
       </c>
@@ -17016,7 +17045,7 @@
       <c r="AK36" s="134"/>
       <c r="AL36" s="135"/>
     </row>
-    <row r="37" spans="1:38" s="13" customFormat="1">
+    <row r="37" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="242" t="s">
         <v>309</v>
       </c>
@@ -17066,7 +17095,7 @@
       <c r="AK37" s="134"/>
       <c r="AL37" s="135"/>
     </row>
-    <row r="38" spans="1:38" s="13" customFormat="1">
+    <row r="38" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="242" t="s">
         <v>309</v>
       </c>
@@ -17116,7 +17145,7 @@
       <c r="AK38" s="134"/>
       <c r="AL38" s="135"/>
     </row>
-    <row r="39" spans="1:38" s="13" customFormat="1">
+    <row r="39" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="242" t="s">
         <v>309</v>
       </c>
@@ -17166,7 +17195,7 @@
       <c r="AK39" s="134"/>
       <c r="AL39" s="135"/>
     </row>
-    <row r="40" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="40" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="262" t="s">
         <v>309</v>
       </c>
@@ -17216,7 +17245,7 @@
       <c r="AK40" s="137"/>
       <c r="AL40" s="138"/>
     </row>
-    <row r="41" spans="1:38" s="13" customFormat="1">
+    <row r="41" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="239" t="s">
         <v>309</v>
       </c>
@@ -17276,7 +17305,7 @@
       <c r="AK41" s="150"/>
       <c r="AL41" s="151"/>
     </row>
-    <row r="42" spans="1:38" s="13" customFormat="1">
+    <row r="42" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="242" t="s">
         <v>309</v>
       </c>
@@ -17324,7 +17353,7 @@
       <c r="AK42" s="192"/>
       <c r="AL42" s="193"/>
     </row>
-    <row r="43" spans="1:38" s="13" customFormat="1">
+    <row r="43" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="242" t="s">
         <v>309</v>
       </c>
@@ -17372,7 +17401,7 @@
       <c r="AK43" s="134"/>
       <c r="AL43" s="135"/>
     </row>
-    <row r="44" spans="1:38" s="13" customFormat="1">
+    <row r="44" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="242" t="s">
         <v>309</v>
       </c>
@@ -17422,7 +17451,7 @@
       <c r="AK44" s="134"/>
       <c r="AL44" s="135"/>
     </row>
-    <row r="45" spans="1:38" s="13" customFormat="1">
+    <row r="45" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="242"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -17470,7 +17499,7 @@
       <c r="AK45" s="134"/>
       <c r="AL45" s="135"/>
     </row>
-    <row r="46" spans="1:38" s="13" customFormat="1">
+    <row r="46" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="242"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -17518,7 +17547,7 @@
       <c r="AK46" s="134"/>
       <c r="AL46" s="135"/>
     </row>
-    <row r="47" spans="1:38" s="13" customFormat="1">
+    <row r="47" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="242"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -17566,7 +17595,7 @@
       <c r="AK47" s="134"/>
       <c r="AL47" s="135"/>
     </row>
-    <row r="48" spans="1:38" s="13" customFormat="1">
+    <row r="48" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="242"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -17614,7 +17643,7 @@
       <c r="AK48" s="134"/>
       <c r="AL48" s="135"/>
     </row>
-    <row r="49" spans="1:38" s="13" customFormat="1">
+    <row r="49" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="242"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -17662,7 +17691,7 @@
       <c r="AK49" s="134"/>
       <c r="AL49" s="135"/>
     </row>
-    <row r="50" spans="1:38" s="13" customFormat="1">
+    <row r="50" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="242"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53" t="s">
@@ -17718,7 +17747,7 @@
       <c r="AK50" s="134"/>
       <c r="AL50" s="135"/>
     </row>
-    <row r="51" spans="1:38" s="13" customFormat="1">
+    <row r="51" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="242"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53" t="s">
@@ -17774,7 +17803,7 @@
       <c r="AK51" s="134"/>
       <c r="AL51" s="135"/>
     </row>
-    <row r="52" spans="1:38" s="13" customFormat="1">
+    <row r="52" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="242"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53" t="s">
@@ -17828,7 +17857,7 @@
       <c r="AK52" s="134"/>
       <c r="AL52" s="135"/>
     </row>
-    <row r="53" spans="1:38" s="13" customFormat="1">
+    <row r="53" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="242"/>
       <c r="B53" s="53"/>
       <c r="C53" s="53" t="s">
@@ -17884,7 +17913,7 @@
       <c r="AK53" s="134"/>
       <c r="AL53" s="135"/>
     </row>
-    <row r="54" spans="1:38" s="13" customFormat="1">
+    <row r="54" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="242"/>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -17932,7 +17961,7 @@
       <c r="AK54" s="134"/>
       <c r="AL54" s="135"/>
     </row>
-    <row r="55" spans="1:38" s="13" customFormat="1">
+    <row r="55" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="242"/>
       <c r="B55" s="53"/>
       <c r="C55" s="53"/>
@@ -17982,7 +18011,7 @@
       <c r="AK55" s="134"/>
       <c r="AL55" s="135"/>
     </row>
-    <row r="56" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="56" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="244"/>
       <c r="B56" s="126"/>
       <c r="C56" s="126"/>
@@ -18032,7 +18061,7 @@
       <c r="AK56" s="137"/>
       <c r="AL56" s="138"/>
     </row>
-    <row r="57" spans="1:38" s="13" customFormat="1">
+    <row r="57" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="250" t="s">
         <v>309</v>
       </c>
@@ -18096,7 +18125,7 @@
       <c r="AK57" s="150"/>
       <c r="AL57" s="151"/>
     </row>
-    <row r="58" spans="1:38" s="13" customFormat="1">
+    <row r="58" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="242" t="s">
         <v>309</v>
       </c>
@@ -18156,7 +18185,7 @@
       <c r="AK58" s="192"/>
       <c r="AL58" s="193"/>
     </row>
-    <row r="59" spans="1:38" s="13" customFormat="1">
+    <row r="59" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="242" t="s">
         <v>309</v>
       </c>
@@ -18214,7 +18243,7 @@
       <c r="AK59" s="134"/>
       <c r="AL59" s="135"/>
     </row>
-    <row r="60" spans="1:38" s="13" customFormat="1">
+    <row r="60" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="242" t="s">
         <v>309</v>
       </c>
@@ -18240,7 +18269,7 @@
         <v>1</v>
       </c>
       <c r="S60" s="54" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T60" s="212" t="s">
         <v>300</v>
@@ -18264,7 +18293,7 @@
       <c r="AK60" s="134"/>
       <c r="AL60" s="135"/>
     </row>
-    <row r="61" spans="1:38" s="13" customFormat="1">
+    <row r="61" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="242"/>
       <c r="B61" s="53" t="s">
         <v>309</v>
@@ -18320,7 +18349,7 @@
       <c r="AK61" s="134"/>
       <c r="AL61" s="135"/>
     </row>
-    <row r="62" spans="1:38" s="13" customFormat="1">
+    <row r="62" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="242"/>
       <c r="B62" s="53" t="s">
         <v>309</v>
@@ -18378,7 +18407,7 @@
       <c r="AK62" s="134"/>
       <c r="AL62" s="135"/>
     </row>
-    <row r="63" spans="1:38" s="13" customFormat="1">
+    <row r="63" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="242"/>
       <c r="B63" s="53" t="s">
         <v>309</v>
@@ -18432,7 +18461,7 @@
       <c r="AK63" s="134"/>
       <c r="AL63" s="135"/>
     </row>
-    <row r="64" spans="1:38" s="13" customFormat="1">
+    <row r="64" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="242"/>
       <c r="B64" s="53" t="s">
         <v>309</v>
@@ -18488,7 +18517,7 @@
       <c r="AK64" s="134"/>
       <c r="AL64" s="135"/>
     </row>
-    <row r="65" spans="1:38" s="13" customFormat="1">
+    <row r="65" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="242"/>
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
@@ -18536,7 +18565,7 @@
       <c r="AK65" s="134"/>
       <c r="AL65" s="135"/>
     </row>
-    <row r="66" spans="1:38" s="13" customFormat="1">
+    <row r="66" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="242"/>
       <c r="B66" s="53"/>
       <c r="C66" s="53"/>
@@ -18584,7 +18613,7 @@
       <c r="AK66" s="134"/>
       <c r="AL66" s="135"/>
     </row>
-    <row r="67" spans="1:38" s="13" customFormat="1">
+    <row r="67" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="242"/>
       <c r="B67" s="53"/>
       <c r="C67" s="53"/>
@@ -18634,7 +18663,7 @@
       <c r="AK67" s="134"/>
       <c r="AL67" s="135"/>
     </row>
-    <row r="68" spans="1:38" s="13" customFormat="1">
+    <row r="68" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="242"/>
       <c r="B68" s="53"/>
       <c r="C68" s="53"/>
@@ -18684,7 +18713,7 @@
       <c r="AK68" s="134"/>
       <c r="AL68" s="135"/>
     </row>
-    <row r="69" spans="1:38" s="13" customFormat="1">
+    <row r="69" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="242"/>
       <c r="B69" s="53"/>
       <c r="C69" s="53"/>
@@ -18734,7 +18763,7 @@
       <c r="AK69" s="134"/>
       <c r="AL69" s="135"/>
     </row>
-    <row r="70" spans="1:38" s="13" customFormat="1">
+    <row r="70" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="242"/>
       <c r="B70" s="53"/>
       <c r="C70" s="53"/>
@@ -18784,7 +18813,7 @@
       <c r="AK70" s="134"/>
       <c r="AL70" s="135"/>
     </row>
-    <row r="71" spans="1:38" s="13" customFormat="1">
+    <row r="71" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="242"/>
       <c r="B71" s="53"/>
       <c r="C71" s="53"/>
@@ -18832,7 +18861,7 @@
       <c r="AK71" s="134"/>
       <c r="AL71" s="135"/>
     </row>
-    <row r="72" spans="1:38" s="13" customFormat="1" ht="27">
+    <row r="72" spans="1:38" s="13" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="242"/>
       <c r="B72" s="53"/>
       <c r="C72" s="53"/>
@@ -18882,7 +18911,7 @@
       <c r="AK72" s="134"/>
       <c r="AL72" s="135"/>
     </row>
-    <row r="73" spans="1:38" s="13" customFormat="1">
+    <row r="73" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="242"/>
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
@@ -18932,7 +18961,7 @@
       <c r="AK73" s="134"/>
       <c r="AL73" s="135"/>
     </row>
-    <row r="74" spans="1:38" s="13" customFormat="1">
+    <row r="74" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="242"/>
       <c r="B74" s="53"/>
       <c r="C74" s="53"/>
@@ -18980,7 +19009,7 @@
       <c r="AK74" s="134"/>
       <c r="AL74" s="135"/>
     </row>
-    <row r="75" spans="1:38" s="13" customFormat="1">
+    <row r="75" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="242"/>
       <c r="B75" s="53"/>
       <c r="C75" s="53"/>
@@ -19030,7 +19059,7 @@
       <c r="AK75" s="134"/>
       <c r="AL75" s="135"/>
     </row>
-    <row r="76" spans="1:38" s="13" customFormat="1">
+    <row r="76" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="242"/>
       <c r="B76" s="53"/>
       <c r="C76" s="53"/>
@@ -19078,7 +19107,7 @@
       <c r="AK76" s="134"/>
       <c r="AL76" s="135"/>
     </row>
-    <row r="77" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="77" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="262"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -19128,7 +19157,7 @@
       <c r="AK77" s="137"/>
       <c r="AL77" s="138"/>
     </row>
-    <row r="78" spans="1:38" s="13" customFormat="1">
+    <row r="78" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="239" t="s">
         <v>309</v>
       </c>
@@ -19184,7 +19213,7 @@
       <c r="AK78" s="150"/>
       <c r="AL78" s="151"/>
     </row>
-    <row r="79" spans="1:38" s="13" customFormat="1">
+    <row r="79" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="242" t="s">
         <v>309</v>
       </c>
@@ -19240,7 +19269,7 @@
       <c r="AK79" s="192"/>
       <c r="AL79" s="193"/>
     </row>
-    <row r="80" spans="1:38" s="13" customFormat="1">
+    <row r="80" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="242" t="s">
         <v>309</v>
       </c>
@@ -19296,7 +19325,7 @@
       <c r="AK80" s="134"/>
       <c r="AL80" s="135"/>
     </row>
-    <row r="81" spans="1:38" s="13" customFormat="1">
+    <row r="81" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="242" t="s">
         <v>309</v>
       </c>
@@ -19346,7 +19375,7 @@
       <c r="AK81" s="134"/>
       <c r="AL81" s="135"/>
     </row>
-    <row r="82" spans="1:38" s="13" customFormat="1">
+    <row r="82" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="242"/>
       <c r="B82" s="53" t="s">
         <v>309</v>
@@ -19402,7 +19431,7 @@
       <c r="AK82" s="134"/>
       <c r="AL82" s="135"/>
     </row>
-    <row r="83" spans="1:38" s="13" customFormat="1">
+    <row r="83" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="242"/>
       <c r="B83" s="53" t="s">
         <v>309</v>
@@ -19458,7 +19487,7 @@
       <c r="AK83" s="134"/>
       <c r="AL83" s="135"/>
     </row>
-    <row r="84" spans="1:38" s="13" customFormat="1">
+    <row r="84" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="242"/>
       <c r="B84" s="53" t="s">
         <v>309</v>
@@ -19514,7 +19543,7 @@
       <c r="AK84" s="134"/>
       <c r="AL84" s="135"/>
     </row>
-    <row r="85" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="85" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="244" t="s">
         <v>309</v>
       </c>
@@ -19572,7 +19601,7 @@
       <c r="AK85" s="137"/>
       <c r="AL85" s="138"/>
     </row>
-    <row r="86" spans="1:38" s="13" customFormat="1">
+    <row r="86" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="250" t="s">
         <v>309</v>
       </c>
@@ -19630,7 +19659,7 @@
       <c r="AK86" s="150"/>
       <c r="AL86" s="151"/>
     </row>
-    <row r="87" spans="1:38" s="13" customFormat="1">
+    <row r="87" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="242" t="s">
         <v>309</v>
       </c>
@@ -19688,7 +19717,7 @@
       <c r="AK87" s="192"/>
       <c r="AL87" s="193"/>
     </row>
-    <row r="88" spans="1:38" s="13" customFormat="1">
+    <row r="88" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="242"/>
       <c r="B88" s="53" t="s">
         <v>309</v>
@@ -19744,7 +19773,7 @@
       <c r="AK88" s="134"/>
       <c r="AL88" s="135"/>
     </row>
-    <row r="89" spans="1:38" s="13" customFormat="1">
+    <row r="89" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="242"/>
       <c r="B89" s="53" t="s">
         <v>309</v>
@@ -19802,7 +19831,7 @@
       <c r="AK89" s="134"/>
       <c r="AL89" s="135"/>
     </row>
-    <row r="90" spans="1:38" s="13" customFormat="1">
+    <row r="90" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="242"/>
       <c r="B90" s="53" t="s">
         <v>309</v>
@@ -19860,7 +19889,7 @@
       <c r="AK90" s="134"/>
       <c r="AL90" s="135"/>
     </row>
-    <row r="91" spans="1:38" s="13" customFormat="1">
+    <row r="91" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="242"/>
       <c r="B91" s="53" t="s">
         <v>309</v>
@@ -19918,7 +19947,7 @@
       <c r="AK91" s="134"/>
       <c r="AL91" s="135"/>
     </row>
-    <row r="92" spans="1:38" s="13" customFormat="1">
+    <row r="92" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="242"/>
       <c r="B92" s="53"/>
       <c r="C92" s="53"/>
@@ -19966,7 +19995,7 @@
       <c r="AK92" s="134"/>
       <c r="AL92" s="135"/>
     </row>
-    <row r="93" spans="1:38" s="13" customFormat="1">
+    <row r="93" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="242"/>
       <c r="B93" s="53"/>
       <c r="C93" s="53"/>
@@ -20014,7 +20043,7 @@
       <c r="AK93" s="134"/>
       <c r="AL93" s="135"/>
     </row>
-    <row r="94" spans="1:38" s="13" customFormat="1">
+    <row r="94" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="242"/>
       <c r="B94" s="53"/>
       <c r="C94" s="53"/>
@@ -20062,7 +20091,7 @@
       <c r="AK94" s="134"/>
       <c r="AL94" s="135"/>
     </row>
-    <row r="95" spans="1:38" s="13" customFormat="1">
+    <row r="95" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="242"/>
       <c r="B95" s="53"/>
       <c r="C95" s="53"/>
@@ -20112,7 +20141,7 @@
       <c r="AK95" s="134"/>
       <c r="AL95" s="135"/>
     </row>
-    <row r="96" spans="1:38" s="13" customFormat="1">
+    <row r="96" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="242"/>
       <c r="B96" s="53"/>
       <c r="C96" s="53"/>
@@ -20162,7 +20191,7 @@
       <c r="AK96" s="134"/>
       <c r="AL96" s="135"/>
     </row>
-    <row r="97" spans="1:38" s="13" customFormat="1">
+    <row r="97" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="242"/>
       <c r="B97" s="53"/>
       <c r="C97" s="53"/>
@@ -20212,7 +20241,7 @@
       <c r="AK97" s="134"/>
       <c r="AL97" s="135"/>
     </row>
-    <row r="98" spans="1:38" s="13" customFormat="1">
+    <row r="98" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="242"/>
       <c r="B98" s="53"/>
       <c r="C98" s="53"/>
@@ -20260,7 +20289,7 @@
       <c r="AK98" s="134"/>
       <c r="AL98" s="135"/>
     </row>
-    <row r="99" spans="1:38" s="13" customFormat="1">
+    <row r="99" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="242"/>
       <c r="B99" s="53"/>
       <c r="C99" s="53"/>
@@ -20308,7 +20337,7 @@
       <c r="AK99" s="134"/>
       <c r="AL99" s="135"/>
     </row>
-    <row r="100" spans="1:38" s="13" customFormat="1">
+    <row r="100" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="242"/>
       <c r="B100" s="53" t="s">
         <v>309</v>
@@ -20358,7 +20387,7 @@
       <c r="AK100" s="134"/>
       <c r="AL100" s="135"/>
     </row>
-    <row r="101" spans="1:38" s="13" customFormat="1">
+    <row r="101" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="242"/>
       <c r="B101" s="53" t="s">
         <v>309</v>
@@ -20410,7 +20439,7 @@
       <c r="AK101" s="134"/>
       <c r="AL101" s="135"/>
     </row>
-    <row r="102" spans="1:38" s="13" customFormat="1">
+    <row r="102" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="242"/>
       <c r="B102" s="53"/>
       <c r="C102" s="53"/>
@@ -20460,7 +20489,7 @@
       <c r="AK102" s="134"/>
       <c r="AL102" s="135"/>
     </row>
-    <row r="103" spans="1:38" s="13" customFormat="1">
+    <row r="103" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="242"/>
       <c r="B103" s="53"/>
       <c r="C103" s="53"/>
@@ -20512,7 +20541,7 @@
       <c r="AK103" s="134"/>
       <c r="AL103" s="135"/>
     </row>
-    <row r="104" spans="1:38" s="13" customFormat="1">
+    <row r="104" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="242"/>
       <c r="B104" s="53"/>
       <c r="C104" s="53"/>
@@ -20564,7 +20593,7 @@
       <c r="AK104" s="134"/>
       <c r="AL104" s="135"/>
     </row>
-    <row r="105" spans="1:38" s="13" customFormat="1">
+    <row r="105" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="242"/>
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
@@ -20612,7 +20641,7 @@
       <c r="AK105" s="134"/>
       <c r="AL105" s="135"/>
     </row>
-    <row r="106" spans="1:38" s="13" customFormat="1">
+    <row r="106" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="242"/>
       <c r="B106" s="53"/>
       <c r="C106" s="53"/>
@@ -20662,7 +20691,7 @@
       <c r="AK106" s="134"/>
       <c r="AL106" s="135"/>
     </row>
-    <row r="107" spans="1:38" s="13" customFormat="1">
+    <row r="107" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="242"/>
       <c r="B107" s="53"/>
       <c r="C107" s="53"/>
@@ -20712,7 +20741,7 @@
       <c r="AK107" s="134"/>
       <c r="AL107" s="135"/>
     </row>
-    <row r="108" spans="1:38" s="13" customFormat="1">
+    <row r="108" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="242"/>
       <c r="B108" s="53"/>
       <c r="C108" s="53"/>
@@ -20762,7 +20791,7 @@
       <c r="AK108" s="143"/>
       <c r="AL108" s="144"/>
     </row>
-    <row r="109" spans="1:38" s="13" customFormat="1">
+    <row r="109" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="242"/>
       <c r="B109" s="53"/>
       <c r="C109" s="53"/>
@@ -20810,7 +20839,7 @@
       <c r="AK109" s="134"/>
       <c r="AL109" s="135"/>
     </row>
-    <row r="110" spans="1:38" s="13" customFormat="1">
+    <row r="110" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="242"/>
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
@@ -20860,7 +20889,7 @@
       <c r="AK110" s="134"/>
       <c r="AL110" s="135"/>
     </row>
-    <row r="111" spans="1:38" s="13" customFormat="1">
+    <row r="111" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="242"/>
       <c r="B111" s="53"/>
       <c r="C111" s="53"/>
@@ -20910,7 +20939,7 @@
       <c r="AK111" s="132"/>
       <c r="AL111" s="141"/>
     </row>
-    <row r="112" spans="1:38" s="13" customFormat="1">
+    <row r="112" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="242" t="s">
         <v>309</v>
       </c>
@@ -20972,7 +21001,7 @@
       <c r="AK112" s="134"/>
       <c r="AL112" s="135"/>
     </row>
-    <row r="113" spans="1:38" s="13" customFormat="1">
+    <row r="113" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="242" t="s">
         <v>309</v>
       </c>
@@ -21032,7 +21061,7 @@
       <c r="AK113" s="134"/>
       <c r="AL113" s="135"/>
     </row>
-    <row r="114" spans="1:38" s="13" customFormat="1">
+    <row r="114" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="242" t="s">
         <v>309</v>
       </c>
@@ -21088,7 +21117,7 @@
       <c r="AK114" s="134"/>
       <c r="AL114" s="135"/>
     </row>
-    <row r="115" spans="1:38" s="13" customFormat="1" ht="27">
+    <row r="115" spans="1:38" s="13" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="242"/>
       <c r="B115" s="53"/>
       <c r="C115" s="53"/>
@@ -21138,7 +21167,7 @@
       <c r="AK115" s="134"/>
       <c r="AL115" s="135"/>
     </row>
-    <row r="116" spans="1:38" s="13" customFormat="1">
+    <row r="116" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="242"/>
       <c r="B116" s="53"/>
       <c r="C116" s="53"/>
@@ -21186,7 +21215,7 @@
       <c r="AK116" s="134"/>
       <c r="AL116" s="135"/>
     </row>
-    <row r="117" spans="1:38" s="13" customFormat="1" ht="27">
+    <row r="117" spans="1:38" s="13" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="242"/>
       <c r="B117" s="53"/>
       <c r="C117" s="53"/>
@@ -21236,7 +21265,7 @@
       <c r="AK117" s="134"/>
       <c r="AL117" s="135"/>
     </row>
-    <row r="118" spans="1:38" s="13" customFormat="1">
+    <row r="118" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="242"/>
       <c r="B118" s="53"/>
       <c r="C118" s="53"/>
@@ -21286,7 +21315,7 @@
       <c r="AK118" s="134"/>
       <c r="AL118" s="135"/>
     </row>
-    <row r="119" spans="1:38" s="13" customFormat="1">
+    <row r="119" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="242"/>
       <c r="B119" s="53"/>
       <c r="C119" s="53"/>
@@ -21336,7 +21365,7 @@
       <c r="AK119" s="134"/>
       <c r="AL119" s="135"/>
     </row>
-    <row r="120" spans="1:38" s="13" customFormat="1">
+    <row r="120" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="242"/>
       <c r="B120" s="53"/>
       <c r="C120" s="53"/>
@@ -21384,7 +21413,7 @@
       <c r="AK120" s="134"/>
       <c r="AL120" s="135"/>
     </row>
-    <row r="121" spans="1:38" s="13" customFormat="1">
+    <row r="121" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="242"/>
       <c r="B121" s="53"/>
       <c r="C121" s="53"/>
@@ -21432,7 +21461,7 @@
       <c r="AK121" s="134"/>
       <c r="AL121" s="135"/>
     </row>
-    <row r="122" spans="1:38" s="13" customFormat="1">
+    <row r="122" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="242"/>
       <c r="B122" s="53"/>
       <c r="C122" s="53"/>
@@ -21482,7 +21511,7 @@
       <c r="AK122" s="134"/>
       <c r="AL122" s="135"/>
     </row>
-    <row r="123" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="123" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="262"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -21532,7 +21561,7 @@
       <c r="AK123" s="137"/>
       <c r="AL123" s="138"/>
     </row>
-    <row r="124" spans="1:38" s="13" customFormat="1">
+    <row r="124" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="239" t="s">
         <v>309</v>
       </c>
@@ -21596,7 +21625,7 @@
       <c r="AK124" s="150"/>
       <c r="AL124" s="151"/>
     </row>
-    <row r="125" spans="1:38" s="13" customFormat="1">
+    <row r="125" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="242" t="s">
         <v>309</v>
       </c>
@@ -21660,7 +21689,7 @@
       <c r="AK125" s="192"/>
       <c r="AL125" s="193"/>
     </row>
-    <row r="126" spans="1:38" s="13" customFormat="1">
+    <row r="126" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="242" t="s">
         <v>309</v>
       </c>
@@ -21724,7 +21753,7 @@
       <c r="AK126" s="134"/>
       <c r="AL126" s="135"/>
     </row>
-    <row r="127" spans="1:38" s="13" customFormat="1">
+    <row r="127" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="242" t="s">
         <v>309</v>
       </c>
@@ -21790,7 +21819,7 @@
       <c r="AK127" s="146"/>
       <c r="AL127" s="147"/>
     </row>
-    <row r="128" spans="1:38" s="13" customFormat="1">
+    <row r="128" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="242" t="s">
         <v>309</v>
       </c>
@@ -21840,7 +21869,7 @@
       <c r="AK128" s="134"/>
       <c r="AL128" s="135"/>
     </row>
-    <row r="129" spans="1:38" s="13" customFormat="1">
+    <row r="129" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="242" t="s">
         <v>309</v>
       </c>
@@ -21906,7 +21935,7 @@
       <c r="AK129" s="134"/>
       <c r="AL129" s="135"/>
     </row>
-    <row r="130" spans="1:38" s="13" customFormat="1">
+    <row r="130" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="242"/>
       <c r="B130" s="53"/>
       <c r="C130" s="53"/>
@@ -21956,7 +21985,7 @@
       <c r="AK130" s="134"/>
       <c r="AL130" s="135"/>
     </row>
-    <row r="131" spans="1:38" s="13" customFormat="1">
+    <row r="131" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="242"/>
       <c r="B131" s="53"/>
       <c r="C131" s="53"/>
@@ -22006,7 +22035,7 @@
       <c r="AK131" s="134"/>
       <c r="AL131" s="135"/>
     </row>
-    <row r="132" spans="1:38" s="13" customFormat="1">
+    <row r="132" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="242"/>
       <c r="B132" s="53"/>
       <c r="C132" s="53"/>
@@ -22056,7 +22085,7 @@
       <c r="AK132" s="134"/>
       <c r="AL132" s="135"/>
     </row>
-    <row r="133" spans="1:38" s="13" customFormat="1">
+    <row r="133" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="242"/>
       <c r="B133" s="53"/>
       <c r="C133" s="53"/>
@@ -22106,7 +22135,7 @@
       <c r="AK133" s="134"/>
       <c r="AL133" s="135"/>
     </row>
-    <row r="134" spans="1:38" s="13" customFormat="1">
+    <row r="134" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="242"/>
       <c r="B134" s="53" t="s">
         <v>309</v>
@@ -22168,7 +22197,7 @@
       <c r="AK134" s="134"/>
       <c r="AL134" s="135"/>
     </row>
-    <row r="135" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="135" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="244"/>
       <c r="B135" s="126" t="s">
         <v>309</v>
@@ -22232,7 +22261,7 @@
       <c r="AK135" s="137"/>
       <c r="AL135" s="138"/>
     </row>
-    <row r="136" spans="1:38" s="13" customFormat="1">
+    <row r="136" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="250" t="s">
         <v>309</v>
       </c>
@@ -22284,7 +22313,7 @@
       <c r="AK136" s="150"/>
       <c r="AL136" s="151"/>
     </row>
-    <row r="137" spans="1:38" s="13" customFormat="1">
+    <row r="137" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="242" t="s">
         <v>309</v>
       </c>
@@ -22336,7 +22365,7 @@
       <c r="AK137" s="192"/>
       <c r="AL137" s="193"/>
     </row>
-    <row r="138" spans="1:38" s="13" customFormat="1">
+    <row r="138" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="242" t="s">
         <v>309</v>
       </c>
@@ -22384,7 +22413,7 @@
       <c r="AK138" s="134"/>
       <c r="AL138" s="135"/>
     </row>
-    <row r="139" spans="1:38" s="13" customFormat="1">
+    <row r="139" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="242" t="s">
         <v>309</v>
       </c>
@@ -22434,7 +22463,7 @@
       <c r="AK139" s="134"/>
       <c r="AL139" s="135"/>
     </row>
-    <row r="140" spans="1:38" s="13" customFormat="1">
+    <row r="140" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="242" t="s">
         <v>309</v>
       </c>
@@ -22484,7 +22513,7 @@
       <c r="AK140" s="134"/>
       <c r="AL140" s="135"/>
     </row>
-    <row r="141" spans="1:38" s="13" customFormat="1">
+    <row r="141" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="242"/>
       <c r="B141" s="53" t="s">
         <v>309</v>
@@ -22532,7 +22561,7 @@
       <c r="AK141" s="134"/>
       <c r="AL141" s="135"/>
     </row>
-    <row r="142" spans="1:38" s="13" customFormat="1">
+    <row r="142" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="242"/>
       <c r="B142" s="53" t="s">
         <v>309</v>
@@ -22582,7 +22611,7 @@
       <c r="AK142" s="134"/>
       <c r="AL142" s="135"/>
     </row>
-    <row r="143" spans="1:38" s="13" customFormat="1">
+    <row r="143" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="242"/>
       <c r="B143" s="53" t="s">
         <v>309</v>
@@ -22632,7 +22661,7 @@
       <c r="AK143" s="134"/>
       <c r="AL143" s="135"/>
     </row>
-    <row r="144" spans="1:38" s="13" customFormat="1">
+    <row r="144" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="242"/>
       <c r="B144" s="53" t="s">
         <v>309</v>
@@ -22680,7 +22709,7 @@
       <c r="AK144" s="134"/>
       <c r="AL144" s="135"/>
     </row>
-    <row r="145" spans="1:38" s="13" customFormat="1">
+    <row r="145" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="242"/>
       <c r="B145" s="53" t="s">
         <v>309</v>
@@ -22730,7 +22759,7 @@
       <c r="AK145" s="134"/>
       <c r="AL145" s="135"/>
     </row>
-    <row r="146" spans="1:38" s="13" customFormat="1">
+    <row r="146" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="242"/>
       <c r="B146" s="53" t="s">
         <v>309</v>
@@ -22780,7 +22809,7 @@
       <c r="AK146" s="134"/>
       <c r="AL146" s="135"/>
     </row>
-    <row r="147" spans="1:38" s="13" customFormat="1">
+    <row r="147" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="242"/>
       <c r="B147" s="53"/>
       <c r="C147" s="53"/>
@@ -22828,7 +22857,7 @@
       <c r="AK147" s="134"/>
       <c r="AL147" s="135"/>
     </row>
-    <row r="148" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="148" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="262"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -22878,7 +22907,7 @@
       <c r="AK148" s="137"/>
       <c r="AL148" s="138"/>
     </row>
-    <row r="149" spans="1:38" s="13" customFormat="1">
+    <row r="149" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="239" t="s">
         <v>309</v>
       </c>
@@ -22942,7 +22971,7 @@
       <c r="AK149" s="150"/>
       <c r="AL149" s="151"/>
     </row>
-    <row r="150" spans="1:38" s="13" customFormat="1">
+    <row r="150" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="242"/>
       <c r="B150" s="53"/>
       <c r="C150" s="53"/>
@@ -22990,7 +23019,7 @@
       <c r="AK150" s="192"/>
       <c r="AL150" s="193"/>
     </row>
-    <row r="151" spans="1:38" s="13" customFormat="1">
+    <row r="151" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="242"/>
       <c r="B151" s="53"/>
       <c r="C151" s="53"/>
@@ -23038,7 +23067,7 @@
       <c r="AK151" s="134"/>
       <c r="AL151" s="135"/>
     </row>
-    <row r="152" spans="1:38" s="13" customFormat="1">
+    <row r="152" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="242"/>
       <c r="B152" s="53"/>
       <c r="C152" s="53"/>
@@ -23088,7 +23117,7 @@
       <c r="AK152" s="134"/>
       <c r="AL152" s="135"/>
     </row>
-    <row r="153" spans="1:38" s="13" customFormat="1">
+    <row r="153" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="242" t="s">
         <v>309</v>
       </c>
@@ -23152,7 +23181,7 @@
       <c r="AK153" s="134"/>
       <c r="AL153" s="135"/>
     </row>
-    <row r="154" spans="1:38" s="13" customFormat="1">
+    <row r="154" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="242" t="s">
         <v>309</v>
       </c>
@@ -23216,7 +23245,7 @@
       <c r="AK154" s="134"/>
       <c r="AL154" s="135"/>
     </row>
-    <row r="155" spans="1:38" s="13" customFormat="1">
+    <row r="155" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="242" t="s">
         <v>309</v>
       </c>
@@ -23282,7 +23311,7 @@
       <c r="AK155" s="134"/>
       <c r="AL155" s="135"/>
     </row>
-    <row r="156" spans="1:38" s="13" customFormat="1">
+    <row r="156" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="242" t="s">
         <v>309</v>
       </c>
@@ -23346,7 +23375,7 @@
       <c r="AK156" s="134"/>
       <c r="AL156" s="135"/>
     </row>
-    <row r="157" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="157" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="244" t="s">
         <v>309</v>
       </c>
@@ -23412,7 +23441,7 @@
       <c r="AK157" s="137"/>
       <c r="AL157" s="138"/>
     </row>
-    <row r="158" spans="1:38" s="13" customFormat="1">
+    <row r="158" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="239" t="s">
         <v>309</v>
       </c>
@@ -23468,7 +23497,7 @@
       <c r="AK158" s="150"/>
       <c r="AL158" s="151"/>
     </row>
-    <row r="159" spans="1:38" s="13" customFormat="1">
+    <row r="159" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="242" t="s">
         <v>309</v>
       </c>
@@ -23516,7 +23545,7 @@
       <c r="AK159" s="192"/>
       <c r="AL159" s="193"/>
     </row>
-    <row r="160" spans="1:38" s="13" customFormat="1">
+    <row r="160" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="242" t="s">
         <v>309</v>
       </c>
@@ -23564,7 +23593,7 @@
       <c r="AK160" s="134"/>
       <c r="AL160" s="135"/>
     </row>
-    <row r="161" spans="1:38" s="13" customFormat="1">
+    <row r="161" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="242" t="s">
         <v>309</v>
       </c>
@@ -23614,7 +23643,7 @@
       <c r="AK161" s="134"/>
       <c r="AL161" s="135"/>
     </row>
-    <row r="162" spans="1:38" s="13" customFormat="1">
+    <row r="162" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="242" t="s">
         <v>309</v>
       </c>
@@ -23670,7 +23699,7 @@
       <c r="AK162" s="134"/>
       <c r="AL162" s="135"/>
     </row>
-    <row r="163" spans="1:38" s="13" customFormat="1">
+    <row r="163" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="242" t="s">
         <v>309</v>
       </c>
@@ -23718,7 +23747,7 @@
       <c r="AK163" s="134"/>
       <c r="AL163" s="135"/>
     </row>
-    <row r="164" spans="1:38" s="13" customFormat="1">
+    <row r="164" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="242" t="s">
         <v>309</v>
       </c>
@@ -23768,7 +23797,7 @@
       <c r="AK164" s="134"/>
       <c r="AL164" s="135"/>
     </row>
-    <row r="165" spans="1:38" s="13" customFormat="1">
+    <row r="165" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="242" t="s">
         <v>309</v>
       </c>
@@ -23824,7 +23853,7 @@
       <c r="AK165" s="134"/>
       <c r="AL165" s="135"/>
     </row>
-    <row r="166" spans="1:38" s="13" customFormat="1">
+    <row r="166" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="242" t="s">
         <v>309</v>
       </c>
@@ -23882,7 +23911,7 @@
       <c r="AK166" s="134"/>
       <c r="AL166" s="135"/>
     </row>
-    <row r="167" spans="1:38" s="13" customFormat="1">
+    <row r="167" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="242" t="s">
         <v>309</v>
       </c>
@@ -23940,7 +23969,7 @@
       <c r="AK167" s="134"/>
       <c r="AL167" s="135"/>
     </row>
-    <row r="168" spans="1:38" s="13" customFormat="1">
+    <row r="168" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="242" t="s">
         <v>309</v>
       </c>
@@ -23998,7 +24027,7 @@
       <c r="AK168" s="134"/>
       <c r="AL168" s="135"/>
     </row>
-    <row r="169" spans="1:38" s="13" customFormat="1">
+    <row r="169" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="242"/>
       <c r="B169" s="53"/>
       <c r="C169" s="53" t="s">
@@ -24046,7 +24075,7 @@
       <c r="AK169" s="134"/>
       <c r="AL169" s="135"/>
     </row>
-    <row r="170" spans="1:38" s="13" customFormat="1">
+    <row r="170" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="242" t="s">
         <v>309</v>
       </c>
@@ -24102,7 +24131,7 @@
       <c r="AK170" s="134"/>
       <c r="AL170" s="135"/>
     </row>
-    <row r="171" spans="1:38" s="13" customFormat="1">
+    <row r="171" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="242" t="s">
         <v>309</v>
       </c>
@@ -24160,7 +24189,7 @@
       <c r="AK171" s="134"/>
       <c r="AL171" s="135"/>
     </row>
-    <row r="172" spans="1:38" s="13" customFormat="1">
+    <row r="172" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="242" t="s">
         <v>309</v>
       </c>
@@ -24218,7 +24247,7 @@
       <c r="AK172" s="134"/>
       <c r="AL172" s="135"/>
     </row>
-    <row r="173" spans="1:38" s="13" customFormat="1">
+    <row r="173" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="242" t="s">
         <v>309</v>
       </c>
@@ -24274,7 +24303,7 @@
       <c r="AK173" s="134"/>
       <c r="AL173" s="135"/>
     </row>
-    <row r="174" spans="1:38" s="13" customFormat="1">
+    <row r="174" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="242" t="s">
         <v>309</v>
       </c>
@@ -24308,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="S174" s="54" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="T174" s="212" t="s">
         <v>353</v>
@@ -24332,7 +24361,7 @@
       <c r="AK174" s="134"/>
       <c r="AL174" s="135"/>
     </row>
-    <row r="175" spans="1:38" s="13" customFormat="1">
+    <row r="175" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="242" t="s">
         <v>309</v>
       </c>
@@ -24390,7 +24419,7 @@
       <c r="AK175" s="134"/>
       <c r="AL175" s="135"/>
     </row>
-    <row r="176" spans="1:38" s="13" customFormat="1">
+    <row r="176" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="242" t="s">
         <v>309</v>
       </c>
@@ -24446,7 +24475,7 @@
       <c r="AK176" s="134"/>
       <c r="AL176" s="135"/>
     </row>
-    <row r="177" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="177" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="244" t="s">
         <v>309</v>
       </c>
@@ -24504,7 +24533,7 @@
       <c r="AK177" s="137"/>
       <c r="AL177" s="138"/>
     </row>
-    <row r="178" spans="1:38" s="13" customFormat="1">
+    <row r="178" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="239" t="s">
         <v>309</v>
       </c>
@@ -24568,7 +24597,7 @@
       <c r="AK178" s="150"/>
       <c r="AL178" s="151"/>
     </row>
-    <row r="179" spans="1:38" s="13" customFormat="1">
+    <row r="179" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="242" t="s">
         <v>309</v>
       </c>
@@ -24618,7 +24647,7 @@
       <c r="AK179" s="192"/>
       <c r="AL179" s="193"/>
     </row>
-    <row r="180" spans="1:38" s="13" customFormat="1">
+    <row r="180" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="242" t="s">
         <v>309</v>
       </c>
@@ -24668,7 +24697,7 @@
       <c r="AK180" s="134"/>
       <c r="AL180" s="135"/>
     </row>
-    <row r="181" spans="1:38" s="13" customFormat="1">
+    <row r="181" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="242" t="s">
         <v>309</v>
       </c>
@@ -24720,7 +24749,7 @@
       <c r="AK181" s="134"/>
       <c r="AL181" s="135"/>
     </row>
-    <row r="182" spans="1:38" s="13" customFormat="1">
+    <row r="182" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="242" t="s">
         <v>309</v>
       </c>
@@ -24772,7 +24801,7 @@
       <c r="AK182" s="134"/>
       <c r="AL182" s="135"/>
     </row>
-    <row r="183" spans="1:38" s="13" customFormat="1">
+    <row r="183" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="242" t="s">
         <v>309</v>
       </c>
@@ -24822,7 +24851,7 @@
       <c r="AK183" s="134"/>
       <c r="AL183" s="135"/>
     </row>
-    <row r="184" spans="1:38" s="13" customFormat="1">
+    <row r="184" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="242" t="s">
         <v>309</v>
       </c>
@@ -24874,7 +24903,7 @@
       <c r="AK184" s="134"/>
       <c r="AL184" s="135"/>
     </row>
-    <row r="185" spans="1:38" s="13" customFormat="1">
+    <row r="185" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="242"/>
       <c r="B185" s="53" t="s">
         <v>309</v>
@@ -24922,7 +24951,7 @@
       <c r="AK185" s="134"/>
       <c r="AL185" s="135"/>
     </row>
-    <row r="186" spans="1:38" s="13" customFormat="1">
+    <row r="186" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="242"/>
       <c r="B186" s="53" t="s">
         <v>309</v>
@@ -24972,7 +25001,7 @@
       <c r="AK186" s="134"/>
       <c r="AL186" s="135"/>
     </row>
-    <row r="187" spans="1:38" s="13" customFormat="1">
+    <row r="187" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="242"/>
       <c r="B187" s="53" t="s">
         <v>309</v>
@@ -25022,7 +25051,7 @@
       <c r="AK187" s="134"/>
       <c r="AL187" s="135"/>
     </row>
-    <row r="188" spans="1:38" s="13" customFormat="1">
+    <row r="188" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="242"/>
       <c r="B188" s="53" t="s">
         <v>309</v>
@@ -25078,7 +25107,7 @@
       <c r="AK188" s="134"/>
       <c r="AL188" s="135"/>
     </row>
-    <row r="189" spans="1:38" s="13" customFormat="1">
+    <row r="189" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="242"/>
       <c r="B189" s="53" t="s">
         <v>309</v>
@@ -25126,7 +25155,7 @@
       <c r="AK189" s="134"/>
       <c r="AL189" s="135"/>
     </row>
-    <row r="190" spans="1:38" s="13" customFormat="1">
+    <row r="190" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="242"/>
       <c r="B190" s="53" t="s">
         <v>309</v>
@@ -25176,7 +25205,7 @@
       <c r="AK190" s="134"/>
       <c r="AL190" s="135"/>
     </row>
-    <row r="191" spans="1:38" s="13" customFormat="1">
+    <row r="191" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="242"/>
       <c r="B191" s="53" t="s">
         <v>309</v>
@@ -25232,7 +25261,7 @@
       <c r="AK191" s="134"/>
       <c r="AL191" s="135"/>
     </row>
-    <row r="192" spans="1:38" s="13" customFormat="1">
+    <row r="192" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="242"/>
       <c r="B192" s="53" t="s">
         <v>309</v>
@@ -25290,7 +25319,7 @@
       <c r="AK192" s="134"/>
       <c r="AL192" s="135"/>
     </row>
-    <row r="193" spans="1:38" s="13" customFormat="1">
+    <row r="193" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="242"/>
       <c r="B193" s="53"/>
       <c r="C193" s="53"/>
@@ -25338,7 +25367,7 @@
       <c r="AK193" s="134"/>
       <c r="AL193" s="135"/>
     </row>
-    <row r="194" spans="1:38" s="13" customFormat="1">
+    <row r="194" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="242"/>
       <c r="B194" s="53"/>
       <c r="C194" s="53"/>
@@ -25388,7 +25417,7 @@
       <c r="AK194" s="134"/>
       <c r="AL194" s="135"/>
     </row>
-    <row r="195" spans="1:38" s="13" customFormat="1">
+    <row r="195" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="242"/>
       <c r="B195" s="53"/>
       <c r="C195" s="53"/>
@@ -25436,7 +25465,7 @@
       <c r="AK195" s="134"/>
       <c r="AL195" s="135"/>
     </row>
-    <row r="196" spans="1:38" s="13" customFormat="1">
+    <row r="196" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="242"/>
       <c r="B196" s="53"/>
       <c r="C196" s="53"/>
@@ -25486,7 +25515,7 @@
       <c r="AK196" s="134"/>
       <c r="AL196" s="135"/>
     </row>
-    <row r="197" spans="1:38" s="13" customFormat="1">
+    <row r="197" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="242"/>
       <c r="B197" s="53"/>
       <c r="C197" s="53"/>
@@ -25534,7 +25563,7 @@
       <c r="AK197" s="134"/>
       <c r="AL197" s="135"/>
     </row>
-    <row r="198" spans="1:38" s="13" customFormat="1">
+    <row r="198" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="242"/>
       <c r="B198" s="53"/>
       <c r="C198" s="53"/>
@@ -25582,7 +25611,7 @@
       <c r="AK198" s="134"/>
       <c r="AL198" s="135"/>
     </row>
-    <row r="199" spans="1:38" s="13" customFormat="1">
+    <row r="199" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="242"/>
       <c r="B199" s="53"/>
       <c r="C199" s="53"/>
@@ -25632,7 +25661,7 @@
       <c r="AK199" s="134"/>
       <c r="AL199" s="135"/>
     </row>
-    <row r="200" spans="1:38" s="13" customFormat="1">
+    <row r="200" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="242"/>
       <c r="B200" s="53"/>
       <c r="C200" s="53"/>
@@ -25680,7 +25709,7 @@
       <c r="AK200" s="134"/>
       <c r="AL200" s="135"/>
     </row>
-    <row r="201" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="201" spans="1:38" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A201" s="244"/>
       <c r="B201" s="126"/>
       <c r="C201" s="126"/>
@@ -25730,7 +25759,7 @@
       <c r="AK201" s="137"/>
       <c r="AL201" s="138"/>
     </row>
-    <row r="202" spans="1:38" s="13" customFormat="1">
+    <row r="202" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="250"/>
       <c r="B202" s="83" t="s">
         <v>309</v>
@@ -25790,7 +25819,7 @@
       <c r="AK202" s="150"/>
       <c r="AL202" s="151"/>
     </row>
-    <row r="203" spans="1:38" s="13" customFormat="1">
+    <row r="203" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="242"/>
       <c r="B203" s="53" t="s">
         <v>309</v>
@@ -25842,7 +25871,7 @@
       <c r="AK203" s="192"/>
       <c r="AL203" s="193"/>
     </row>
-    <row r="204" spans="1:38" s="13" customFormat="1">
+    <row r="204" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="242"/>
       <c r="B204" s="53" t="s">
         <v>309</v>
@@ -25894,7 +25923,7 @@
       <c r="AK204" s="134"/>
       <c r="AL204" s="135"/>
     </row>
-    <row r="205" spans="1:38" s="13" customFormat="1">
+    <row r="205" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="242"/>
       <c r="B205" s="53" t="s">
         <v>309</v>
@@ -25948,7 +25977,7 @@
       <c r="AK205" s="134"/>
       <c r="AL205" s="135"/>
     </row>
-    <row r="206" spans="1:38" s="13" customFormat="1">
+    <row r="206" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="242"/>
       <c r="B206" s="53"/>
       <c r="C206" s="53"/>
@@ -25996,7 +26025,7 @@
       <c r="AK206" s="134"/>
       <c r="AL206" s="135"/>
     </row>
-    <row r="207" spans="1:38" s="13" customFormat="1">
+    <row r="207" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="242"/>
       <c r="B207" s="53"/>
       <c r="C207" s="53"/>
@@ -26044,7 +26073,7 @@
       <c r="AK207" s="134"/>
       <c r="AL207" s="135"/>
     </row>
-    <row r="208" spans="1:38" s="13" customFormat="1">
+    <row r="208" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="242"/>
       <c r="B208" s="53"/>
       <c r="C208" s="53"/>
@@ -26094,7 +26123,7 @@
       <c r="AK208" s="134"/>
       <c r="AL208" s="135"/>
     </row>
-    <row r="209" spans="1:38" s="13" customFormat="1">
+    <row r="209" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="242"/>
       <c r="B209" s="53"/>
       <c r="C209" s="53"/>
@@ -26144,7 +26173,7 @@
       <c r="AK209" s="134"/>
       <c r="AL209" s="135"/>
     </row>
-    <row r="210" spans="1:38" s="13" customFormat="1">
+    <row r="210" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="242"/>
       <c r="B210" s="53"/>
       <c r="C210" s="53"/>
@@ -26192,7 +26221,7 @@
       <c r="AK210" s="134"/>
       <c r="AL210" s="135"/>
     </row>
-    <row r="211" spans="1:38" s="13" customFormat="1">
+    <row r="211" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="242"/>
       <c r="B211" s="53"/>
       <c r="C211" s="53"/>
@@ -26242,7 +26271,7 @@
       <c r="AK211" s="134"/>
       <c r="AL211" s="135"/>
     </row>
-    <row r="212" spans="1:38" s="13" customFormat="1">
+    <row r="212" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="242"/>
       <c r="B212" s="53"/>
       <c r="C212" s="53"/>
@@ -26292,7 +26321,7 @@
       <c r="AK212" s="134"/>
       <c r="AL212" s="135"/>
     </row>
-    <row r="213" spans="1:38" s="13" customFormat="1">
+    <row r="213" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="242"/>
       <c r="B213" s="53"/>
       <c r="C213" s="53"/>
@@ -26348,7 +26377,7 @@
       <c r="AK213" s="134"/>
       <c r="AL213" s="135"/>
     </row>
-    <row r="214" spans="1:38" s="13" customFormat="1">
+    <row r="214" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="242"/>
       <c r="B214" s="53"/>
       <c r="C214" s="53"/>
@@ -26404,7 +26433,7 @@
       <c r="AK214" s="134"/>
       <c r="AL214" s="135"/>
     </row>
-    <row r="215" spans="1:38" s="13" customFormat="1">
+    <row r="215" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="242"/>
       <c r="B215" s="53"/>
       <c r="C215" s="53"/>
@@ -26454,7 +26483,7 @@
       <c r="AK215" s="134"/>
       <c r="AL215" s="135"/>
     </row>
-    <row r="216" spans="1:38" s="13" customFormat="1">
+    <row r="216" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="242"/>
       <c r="B216" s="53"/>
       <c r="C216" s="53"/>
@@ -26504,7 +26533,7 @@
       <c r="AK216" s="134"/>
       <c r="AL216" s="135"/>
     </row>
-    <row r="217" spans="1:38" s="13" customFormat="1">
+    <row r="217" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="242"/>
       <c r="B217" s="53"/>
       <c r="C217" s="53"/>
@@ -26554,7 +26583,7 @@
       <c r="AK217" s="134"/>
       <c r="AL217" s="135"/>
     </row>
-    <row r="218" spans="1:38" s="13" customFormat="1">
+    <row r="218" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="242"/>
       <c r="B218" s="53"/>
       <c r="C218" s="53"/>
@@ -26604,7 +26633,7 @@
       <c r="AK218" s="134"/>
       <c r="AL218" s="135"/>
     </row>
-    <row r="219" spans="1:38" s="13" customFormat="1">
+    <row r="219" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="242"/>
       <c r="B219" s="53"/>
       <c r="C219" s="53"/>
@@ -26654,7 +26683,7 @@
       <c r="AK219" s="134"/>
       <c r="AL219" s="135"/>
     </row>
-    <row r="220" spans="1:38" s="13" customFormat="1">
+    <row r="220" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="242"/>
       <c r="B220" s="53"/>
       <c r="C220" s="53"/>
@@ -26704,7 +26733,7 @@
       <c r="AK220" s="134"/>
       <c r="AL220" s="135"/>
     </row>
-    <row r="221" spans="1:38" s="13" customFormat="1">
+    <row r="221" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="242"/>
       <c r="B221" s="53"/>
       <c r="C221" s="53"/>
@@ -26754,7 +26783,7 @@
       <c r="AK221" s="134"/>
       <c r="AL221" s="135"/>
     </row>
-    <row r="222" spans="1:38" s="13" customFormat="1">
+    <row r="222" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="242"/>
       <c r="B222" s="53"/>
       <c r="C222" s="53"/>
@@ -26804,7 +26833,7 @@
       <c r="AK222" s="134"/>
       <c r="AL222" s="135"/>
     </row>
-    <row r="223" spans="1:38" s="13" customFormat="1">
+    <row r="223" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="242"/>
       <c r="B223" s="53"/>
       <c r="C223" s="53"/>
@@ -26854,7 +26883,7 @@
       <c r="AK223" s="134"/>
       <c r="AL223" s="135"/>
     </row>
-    <row r="224" spans="1:38" s="13" customFormat="1">
+    <row r="224" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="242"/>
       <c r="B224" s="53"/>
       <c r="C224" s="53"/>
@@ -26904,7 +26933,7 @@
       <c r="AK224" s="134"/>
       <c r="AL224" s="135"/>
     </row>
-    <row r="225" spans="1:47" s="13" customFormat="1">
+    <row r="225" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="242"/>
       <c r="B225" s="53"/>
       <c r="C225" s="53"/>
@@ -26954,7 +26983,7 @@
       <c r="AK225" s="134"/>
       <c r="AL225" s="135"/>
     </row>
-    <row r="226" spans="1:47" s="13" customFormat="1">
+    <row r="226" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="242"/>
       <c r="B226" s="53"/>
       <c r="C226" s="53"/>
@@ -27004,7 +27033,7 @@
       <c r="AK226" s="134"/>
       <c r="AL226" s="135"/>
     </row>
-    <row r="227" spans="1:47" s="13" customFormat="1">
+    <row r="227" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="242"/>
       <c r="B227" s="53"/>
       <c r="C227" s="53"/>
@@ -27054,7 +27083,7 @@
       <c r="AK227" s="134"/>
       <c r="AL227" s="135"/>
     </row>
-    <row r="228" spans="1:47" s="13" customFormat="1">
+    <row r="228" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="242"/>
       <c r="B228" s="53"/>
       <c r="C228" s="53"/>
@@ -27104,7 +27133,7 @@
       <c r="AK228" s="134"/>
       <c r="AL228" s="135"/>
     </row>
-    <row r="229" spans="1:47" s="13" customFormat="1">
+    <row r="229" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="242"/>
       <c r="B229" s="53"/>
       <c r="C229" s="53"/>
@@ -27156,7 +27185,7 @@
       <c r="AK229" s="134"/>
       <c r="AL229" s="135"/>
     </row>
-    <row r="230" spans="1:47" s="13" customFormat="1">
+    <row r="230" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="242"/>
       <c r="B230" s="53"/>
       <c r="C230" s="53"/>
@@ -27208,7 +27237,7 @@
       <c r="AK230" s="134"/>
       <c r="AL230" s="135"/>
     </row>
-    <row r="231" spans="1:47" s="13" customFormat="1">
+    <row r="231" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="242"/>
       <c r="B231" s="53"/>
       <c r="C231" s="53"/>
@@ -27258,7 +27287,7 @@
       <c r="AK231" s="134"/>
       <c r="AL231" s="135"/>
     </row>
-    <row r="232" spans="1:47" s="13" customFormat="1">
+    <row r="232" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="242"/>
       <c r="B232" s="53"/>
       <c r="C232" s="53"/>
@@ -27310,7 +27339,7 @@
       <c r="AK232" s="134"/>
       <c r="AL232" s="135"/>
     </row>
-    <row r="233" spans="1:47" s="13" customFormat="1">
+    <row r="233" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="242"/>
       <c r="B233" s="53"/>
       <c r="C233" s="53"/>
@@ -27362,7 +27391,7 @@
       <c r="AK233" s="134"/>
       <c r="AL233" s="135"/>
     </row>
-    <row r="234" spans="1:47" s="13" customFormat="1">
+    <row r="234" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="242"/>
       <c r="B234" s="53"/>
       <c r="C234" s="53"/>
@@ -27410,7 +27439,7 @@
       <c r="AK234" s="134"/>
       <c r="AL234" s="135"/>
     </row>
-    <row r="235" spans="1:47" s="13" customFormat="1">
+    <row r="235" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="242"/>
       <c r="B235" s="53"/>
       <c r="C235" s="53"/>
@@ -27458,7 +27487,7 @@
       <c r="AK235" s="134"/>
       <c r="AL235" s="135"/>
     </row>
-    <row r="236" spans="1:47" s="13" customFormat="1">
+    <row r="236" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="242"/>
       <c r="B236" s="53"/>
       <c r="C236" s="53"/>
@@ -27508,7 +27537,7 @@
       <c r="AK236" s="134"/>
       <c r="AL236" s="135"/>
     </row>
-    <row r="237" spans="1:47" s="13" customFormat="1">
+    <row r="237" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="242"/>
       <c r="B237" s="53"/>
       <c r="C237" s="53"/>
@@ -27556,7 +27585,7 @@
       <c r="AK237" s="134"/>
       <c r="AL237" s="135"/>
     </row>
-    <row r="238" spans="1:47" s="13" customFormat="1" ht="14.25" thickBot="1">
+    <row r="238" spans="1:47" s="13" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A238" s="244"/>
       <c r="B238" s="126"/>
       <c r="C238" s="126"/>
@@ -27606,7 +27635,7 @@
       <c r="AK238" s="137"/>
       <c r="AL238" s="138"/>
     </row>
-    <row r="239" spans="1:47" s="13" customFormat="1">
+    <row r="239" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="N239" s="12"/>
       <c r="O239" s="12"/>
       <c r="P239" s="12"/>
@@ -27633,7 +27662,7 @@
       <c r="AK239" s="12"/>
       <c r="AL239" s="12"/>
     </row>
-    <row r="240" spans="1:47">
+    <row r="240" spans="1:47" x14ac:dyDescent="0.15">
       <c r="N240" s="12"/>
       <c r="O240" s="12"/>
       <c r="P240" s="1" t="s">
@@ -27667,7 +27696,7 @@
       <c r="AT240" s="13"/>
       <c r="AU240" s="13"/>
     </row>
-    <row r="241" spans="14:47">
+    <row r="241" spans="14:47" x14ac:dyDescent="0.15">
       <c r="N241" s="12"/>
       <c r="O241" s="12"/>
       <c r="P241" s="1" t="s">
@@ -27690,7 +27719,7 @@
       <c r="AT241" s="13"/>
       <c r="AU241" s="13"/>
     </row>
-    <row r="242" spans="14:47" ht="25.9" customHeight="1">
+    <row r="242" spans="14:47" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N242" s="25"/>
       <c r="O242" s="25"/>
       <c r="P242" s="348"/>
@@ -27706,7 +27735,7 @@
       <c r="V242" s="364"/>
       <c r="W242" s="365"/>
     </row>
-    <row r="243" spans="14:47" ht="25.9" customHeight="1">
+    <row r="243" spans="14:47" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N243" s="27"/>
       <c r="O243" s="25"/>
       <c r="P243" s="351"/>
@@ -27722,7 +27751,7 @@
       <c r="V243" s="343"/>
       <c r="W243" s="345"/>
     </row>
-    <row r="244" spans="14:47" ht="25.9" customHeight="1">
+    <row r="244" spans="14:47" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N244" s="27"/>
       <c r="O244" s="25"/>
       <c r="P244" s="351"/>
@@ -27738,7 +27767,7 @@
       <c r="V244" s="347"/>
       <c r="W244" s="366"/>
     </row>
-    <row r="245" spans="14:47" ht="25.9" customHeight="1">
+    <row r="245" spans="14:47" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N245" s="12"/>
       <c r="O245" s="12"/>
       <c r="P245" s="1"/>
@@ -27751,7 +27780,7 @@
       <c r="X245" s="23"/>
       <c r="AO245" s="13"/>
     </row>
-    <row r="246" spans="14:47">
+    <row r="246" spans="14:47" x14ac:dyDescent="0.15">
       <c r="N246" s="12"/>
       <c r="O246" s="12"/>
       <c r="P246" s="1"/>
@@ -27780,7 +27809,7 @@
       <c r="AH246" s="9"/>
       <c r="AO246" s="13"/>
     </row>
-    <row r="247" spans="14:47">
+    <row r="247" spans="14:47" x14ac:dyDescent="0.15">
       <c r="N247" s="11"/>
       <c r="O247" s="25"/>
       <c r="P247" s="29"/>
@@ -27811,7 +27840,7 @@
       <c r="AJ247" s="1"/>
       <c r="AK247" s="1"/>
     </row>
-    <row r="248" spans="14:47">
+    <row r="248" spans="14:47" x14ac:dyDescent="0.15">
       <c r="N248" s="11"/>
       <c r="O248" s="25"/>
       <c r="P248" s="29"/>
@@ -27848,7 +27877,7 @@
       <c r="AJ248" s="1"/>
       <c r="AK248" s="1"/>
     </row>
-    <row r="249" spans="14:47" ht="24">
+    <row r="249" spans="14:47" ht="24" x14ac:dyDescent="0.15">
       <c r="N249" s="11"/>
       <c r="O249" s="25"/>
       <c r="P249" s="29"/>
@@ -27885,7 +27914,7 @@
       <c r="AJ249" s="1"/>
       <c r="AK249" s="1"/>
     </row>
-    <row r="250" spans="14:47" ht="24">
+    <row r="250" spans="14:47" ht="24" x14ac:dyDescent="0.15">
       <c r="N250" s="11"/>
       <c r="O250" s="12"/>
       <c r="P250" s="1"/>
@@ -27922,7 +27951,7 @@
       <c r="AJ250" s="1"/>
       <c r="AK250" s="1"/>
     </row>
-    <row r="251" spans="14:47" ht="25.5" customHeight="1">
+    <row r="251" spans="14:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N251" s="11"/>
       <c r="O251" s="12"/>
       <c r="P251" s="1"/>
@@ -27960,7 +27989,7 @@
       <c r="AJ251" s="1"/>
       <c r="AK251" s="1"/>
     </row>
-    <row r="252" spans="14:47" ht="18" customHeight="1">
+    <row r="252" spans="14:47" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N252" s="11"/>
       <c r="O252" s="12"/>
       <c r="P252" s="1"/>
@@ -27994,7 +28023,7 @@
       <c r="AJ252" s="1"/>
       <c r="AK252" s="1"/>
     </row>
-    <row r="253" spans="14:47" ht="18" customHeight="1">
+    <row r="253" spans="14:47" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N253" s="11"/>
       <c r="O253" s="12"/>
       <c r="P253" s="1"/>
@@ -28020,7 +28049,7 @@
       <c r="AJ253" s="1"/>
       <c r="AK253" s="1"/>
     </row>
-    <row r="254" spans="14:47" s="13" customFormat="1">
+    <row r="254" spans="14:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="P254" s="32" t="s">
         <v>59</v>
       </c>
@@ -28049,7 +28078,7 @@
       <c r="AJ254" s="12"/>
       <c r="AK254" s="12"/>
     </row>
-    <row r="255" spans="14:47" s="13" customFormat="1">
+    <row r="255" spans="14:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T255" s="11"/>
       <c r="U255" s="357" t="s">
         <v>43</v>
@@ -28075,7 +28104,7 @@
       <c r="AJ255" s="12"/>
       <c r="AK255" s="12"/>
     </row>
-    <row r="256" spans="14:47" s="13" customFormat="1">
+    <row r="256" spans="14:47" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T256" s="11"/>
       <c r="U256" s="357" t="s">
         <v>27</v>
@@ -28099,7 +28128,7 @@
       <c r="AJ256" s="12"/>
       <c r="AK256" s="12"/>
     </row>
-    <row r="257" spans="8:45" s="13" customFormat="1">
+    <row r="257" spans="8:45" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T257" s="11"/>
       <c r="U257" s="357" t="s">
         <v>45</v>
@@ -28120,7 +28149,7 @@
       <c r="AG257" s="12"/>
       <c r="AH257" s="24"/>
     </row>
-    <row r="258" spans="8:45" s="13" customFormat="1">
+    <row r="258" spans="8:45" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T258" s="11"/>
       <c r="U258" s="357" t="s">
         <v>46</v>
@@ -28141,7 +28170,7 @@
       <c r="AG258" s="12"/>
       <c r="AH258" s="24"/>
     </row>
-    <row r="259" spans="8:45" s="13" customFormat="1">
+    <row r="259" spans="8:45" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T259" s="14"/>
       <c r="U259" s="359" t="s">
         <v>99</v>
@@ -28162,10 +28191,10 @@
       <c r="AG259" s="360"/>
       <c r="AH259" s="361"/>
     </row>
-    <row r="260" spans="8:45" s="13" customFormat="1">
+    <row r="260" spans="8:45" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="T260" s="14"/>
     </row>
-    <row r="267" spans="8:45" s="10" customFormat="1">
+    <row r="267" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H267" s="99"/>
       <c r="I267" s="99"/>
       <c r="J267" s="99"/>
@@ -28188,7 +28217,7 @@
       <c r="AR267" s="99"/>
       <c r="AS267" s="99"/>
     </row>
-    <row r="268" spans="8:45" s="10" customFormat="1">
+    <row r="268" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H268" s="99"/>
       <c r="I268" s="99"/>
       <c r="J268" s="99"/>
@@ -28211,7 +28240,7 @@
       <c r="AR268" s="99"/>
       <c r="AS268" s="99"/>
     </row>
-    <row r="269" spans="8:45" s="10" customFormat="1">
+    <row r="269" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H269" s="99"/>
       <c r="I269" s="99"/>
       <c r="J269" s="99"/>
@@ -28240,7 +28269,7 @@
       <c r="AR269" s="99"/>
       <c r="AS269" s="99"/>
     </row>
-    <row r="270" spans="8:45" s="10" customFormat="1">
+    <row r="270" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H270" s="99"/>
       <c r="I270" s="99"/>
       <c r="J270" s="99"/>
@@ -28270,7 +28299,7 @@
       <c r="AR270" s="99"/>
       <c r="AS270" s="99"/>
     </row>
-    <row r="271" spans="8:45" s="10" customFormat="1">
+    <row r="271" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H271" s="99"/>
       <c r="I271" s="99"/>
       <c r="J271" s="99"/>
@@ -28309,7 +28338,7 @@
       <c r="AR271" s="99"/>
       <c r="AS271" s="99"/>
     </row>
-    <row r="272" spans="8:45" s="10" customFormat="1">
+    <row r="272" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H272" s="99"/>
       <c r="I272" s="99"/>
       <c r="J272" s="99"/>
@@ -28348,7 +28377,7 @@
       <c r="AR272" s="99"/>
       <c r="AS272" s="99"/>
     </row>
-    <row r="273" spans="8:45" s="10" customFormat="1">
+    <row r="273" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H273" s="99"/>
       <c r="I273" s="99"/>
       <c r="J273" s="99"/>
@@ -28387,7 +28416,7 @@
       <c r="AR273" s="99"/>
       <c r="AS273" s="99"/>
     </row>
-    <row r="274" spans="8:45" s="10" customFormat="1">
+    <row r="274" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H274" s="99"/>
       <c r="I274" s="99"/>
       <c r="J274" s="99"/>
@@ -28426,7 +28455,7 @@
       <c r="AR274" s="99"/>
       <c r="AS274" s="99"/>
     </row>
-    <row r="275" spans="8:45" s="10" customFormat="1">
+    <row r="275" spans="8:45" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H275" s="99"/>
       <c r="I275" s="99"/>
       <c r="J275" s="99"/>
@@ -28466,7 +28495,7 @@
       <c r="AS275" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:K238"/>
+  <autoFilter ref="A18:K238" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="298">
     <mergeCell ref="V255:AB255"/>
     <mergeCell ref="V256:AB256"/>
@@ -28769,21 +28798,21 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19:U238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19:U238" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$U$248:$U$252</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:V238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:V238" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$U$255:$U$259</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC19:AC238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC19:AC238" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$AC$248:$AC$251</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF19:AF238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF19:AF238" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$AE$248:$AE$252</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.55118110236220474" right="0.31496062992125984" top="0.70866141732283472" bottom="0.51181102362204722" header="0.39370078740157483" footer="0.23622047244094491"/>
-  <pageSetup paperSize="8" scale="44" orientation="landscape" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;24クライテリア項目一覧</oddHeader>
   </headerFooter>
@@ -28793,7 +28822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AT274"/>
   <sheetViews>
@@ -28801,7 +28830,7 @@
       <selection activeCell="L1" sqref="L1:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="9" style="99"/>
     <col min="8" max="8" width="13.625" style="99" customWidth="1"/>
@@ -28830,7 +28859,7 @@
     <col min="38" max="39" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="21.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:43" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -28877,7 +28906,7 @@
       <c r="AL1" s="459"/>
       <c r="AM1" s="460"/>
     </row>
-    <row r="2" spans="1:43" ht="14.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -28918,7 +28947,7 @@
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
     </row>
-    <row r="3" spans="1:43" ht="13.5" customHeight="1">
+    <row r="3" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -28971,7 +29000,7 @@
       <c r="AP3" s="13"/>
       <c r="AQ3" s="13"/>
     </row>
-    <row r="4" spans="1:43" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -29012,7 +29041,7 @@
       <c r="AP4" s="13"/>
       <c r="AQ4" s="13"/>
     </row>
-    <row r="5" spans="1:43" ht="13.5" customHeight="1">
+    <row r="5" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -29069,7 +29098,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -29106,7 +29135,7 @@
       <c r="AL6" s="561"/>
       <c r="AM6" s="518"/>
     </row>
-    <row r="7" spans="1:43" ht="14.25">
+    <row r="7" spans="1:43" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -29166,7 +29195,7 @@
       <c r="AL7" s="493"/>
       <c r="AM7" s="496"/>
     </row>
-    <row r="8" spans="1:43" ht="14.25" thickBot="1">
+    <row r="8" spans="1:43" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -29205,7 +29234,7 @@
       <c r="AL8" s="494"/>
       <c r="AM8" s="497"/>
     </row>
-    <row r="9" spans="1:43" ht="14.25" thickTop="1">
+    <row r="9" spans="1:43" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -29252,7 +29281,7 @@
       <c r="AL9" s="494"/>
       <c r="AM9" s="497"/>
     </row>
-    <row r="10" spans="1:43" ht="14.25" thickBot="1">
+    <row r="10" spans="1:43" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -29298,7 +29327,7 @@
       <c r="AL10" s="495"/>
       <c r="AM10" s="498"/>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -29341,7 +29370,7 @@
       <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
     </row>
-    <row r="12" spans="1:43" ht="14.25" thickBot="1">
+    <row r="12" spans="1:43" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -29354,7 +29383,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="297" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M12" s="298"/>
       <c r="N12" s="13"/>
@@ -29381,7 +29410,7 @@
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -29422,7 +29451,7 @@
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
     </row>
-    <row r="14" spans="1:43" ht="14.25">
+    <row r="14" spans="1:43" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -29463,7 +29492,7 @@
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
     </row>
-    <row r="15" spans="1:43" ht="14.25" thickBot="1">
+    <row r="15" spans="1:43" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -29504,7 +29533,7 @@
       <c r="AL15" s="13"/>
       <c r="AM15" s="13"/>
     </row>
-    <row r="16" spans="1:43" ht="14.25" thickBot="1">
+    <row r="16" spans="1:43" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="196" t="s">
         <v>411</v>
       </c>
@@ -29557,7 +29586,7 @@
       <c r="AL16" s="547"/>
       <c r="AM16" s="548"/>
     </row>
-    <row r="17" spans="1:39" ht="13.15" customHeight="1">
+    <row r="17" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="255" t="s">
         <v>432</v>
       </c>
@@ -29638,7 +29667,7 @@
       <c r="AL17" s="550"/>
       <c r="AM17" s="551"/>
     </row>
-    <row r="18" spans="1:39" ht="14.25" thickBot="1">
+    <row r="18" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="251" t="s">
         <v>326</v>
       </c>
@@ -29701,7 +29730,7 @@
       <c r="AL18" s="579"/>
       <c r="AM18" s="580"/>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="239" t="s">
         <v>309</v>
       </c>
@@ -29754,7 +29783,7 @@
       <c r="AL19" s="278"/>
       <c r="AM19" s="279"/>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="242" t="s">
         <v>309</v>
       </c>
@@ -29807,7 +29836,7 @@
       <c r="AL20" s="165"/>
       <c r="AM20" s="284"/>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="242" t="s">
         <v>309</v>
       </c>
@@ -29856,7 +29885,7 @@
       <c r="AL21" s="165"/>
       <c r="AM21" s="284"/>
     </row>
-    <row r="22" spans="1:39" ht="67.5">
+    <row r="22" spans="1:39" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="242" t="s">
         <v>309</v>
       </c>
@@ -29907,7 +29936,7 @@
       <c r="AL22" s="165"/>
       <c r="AM22" s="284"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="242" t="s">
         <v>309</v>
       </c>
@@ -29956,7 +29985,7 @@
       <c r="AL23" s="165"/>
       <c r="AM23" s="284"/>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="242" t="s">
         <v>309</v>
       </c>
@@ -30005,7 +30034,7 @@
       <c r="AL24" s="165"/>
       <c r="AM24" s="284"/>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="242" t="s">
         <v>309</v>
       </c>
@@ -30056,7 +30085,7 @@
       <c r="AL25" s="165"/>
       <c r="AM25" s="284"/>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="242"/>
       <c r="B26" s="53" t="s">
         <v>309</v>
@@ -30105,7 +30134,7 @@
       <c r="AL26" s="165"/>
       <c r="AM26" s="284"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="242"/>
       <c r="B27" s="53" t="s">
         <v>309</v>
@@ -30156,7 +30185,7 @@
       <c r="AL27" s="165"/>
       <c r="AM27" s="284"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="242"/>
       <c r="B28" s="53" t="s">
         <v>309</v>
@@ -30205,7 +30234,7 @@
       <c r="AL28" s="165"/>
       <c r="AM28" s="284"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="242"/>
       <c r="B29" s="53" t="s">
         <v>309</v>
@@ -30256,7 +30285,7 @@
       <c r="AL29" s="165"/>
       <c r="AM29" s="284"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="242"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53" t="s">
@@ -30305,7 +30334,7 @@
       <c r="AL30" s="165"/>
       <c r="AM30" s="284"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="242"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53" t="s">
@@ -30356,7 +30385,7 @@
       <c r="AL31" s="165"/>
       <c r="AM31" s="284"/>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="242" t="s">
         <v>309</v>
       </c>
@@ -30405,7 +30434,7 @@
       <c r="AL32" s="165"/>
       <c r="AM32" s="284"/>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="242" t="s">
         <v>309</v>
       </c>
@@ -30454,7 +30483,7 @@
       <c r="AL33" s="165"/>
       <c r="AM33" s="284"/>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="242" t="s">
         <v>309</v>
       </c>
@@ -30505,7 +30534,7 @@
       <c r="AL34" s="165"/>
       <c r="AM34" s="284"/>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="242" t="s">
         <v>309</v>
       </c>
@@ -30554,7 +30583,7 @@
       <c r="AL35" s="165"/>
       <c r="AM35" s="284"/>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="242" t="s">
         <v>309</v>
       </c>
@@ -30603,7 +30632,7 @@
       <c r="AL36" s="165"/>
       <c r="AM36" s="284"/>
     </row>
-    <row r="37" spans="1:39" ht="14.25" thickBot="1">
+    <row r="37" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="242" t="s">
         <v>309</v>
       </c>
@@ -30654,7 +30683,7 @@
       <c r="AL37" s="289"/>
       <c r="AM37" s="290"/>
     </row>
-    <row r="38" spans="1:39" s="99" customFormat="1">
+    <row r="38" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="239" t="s">
         <v>309</v>
       </c>
@@ -30709,7 +30738,7 @@
       <c r="AL38" s="273"/>
       <c r="AM38" s="293"/>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="242" t="s">
         <v>309</v>
       </c>
@@ -30756,7 +30785,7 @@
       <c r="AL39" s="165"/>
       <c r="AM39" s="284"/>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A40" s="242" t="s">
         <v>309</v>
       </c>
@@ -30803,7 +30832,7 @@
       <c r="AL40" s="165"/>
       <c r="AM40" s="284"/>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A41" s="242" t="s">
         <v>309</v>
       </c>
@@ -30852,7 +30881,7 @@
       <c r="AL41" s="165"/>
       <c r="AM41" s="284"/>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A42" s="242" t="s">
         <v>309</v>
       </c>
@@ -30901,7 +30930,7 @@
       <c r="AL42" s="165"/>
       <c r="AM42" s="284"/>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A43" s="242" t="s">
         <v>309</v>
       </c>
@@ -30950,7 +30979,7 @@
       <c r="AL43" s="165"/>
       <c r="AM43" s="284"/>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A44" s="242" t="s">
         <v>309</v>
       </c>
@@ -30999,7 +31028,7 @@
       <c r="AL44" s="165"/>
       <c r="AM44" s="284"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A45" s="242" t="s">
         <v>309</v>
       </c>
@@ -31046,7 +31075,7 @@
       <c r="AL45" s="165"/>
       <c r="AM45" s="284"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A46" s="242" t="s">
         <v>309</v>
       </c>
@@ -31095,7 +31124,7 @@
       <c r="AL46" s="165"/>
       <c r="AM46" s="284"/>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A47" s="242" t="s">
         <v>309</v>
       </c>
@@ -31144,7 +31173,7 @@
       <c r="AL47" s="165"/>
       <c r="AM47" s="284"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A48" s="242" t="s">
         <v>309</v>
       </c>
@@ -31193,7 +31222,7 @@
       <c r="AL48" s="165"/>
       <c r="AM48" s="284"/>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A49" s="242" t="s">
         <v>309</v>
       </c>
@@ -31240,7 +31269,7 @@
       <c r="AL49" s="165"/>
       <c r="AM49" s="284"/>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A50" s="242" t="s">
         <v>309</v>
       </c>
@@ -31289,7 +31318,7 @@
       <c r="AL50" s="165"/>
       <c r="AM50" s="284"/>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A51" s="242" t="s">
         <v>309</v>
       </c>
@@ -31338,7 +31367,7 @@
       <c r="AL51" s="165"/>
       <c r="AM51" s="284"/>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A52" s="242" t="s">
         <v>309</v>
       </c>
@@ -31387,7 +31416,7 @@
       <c r="AL52" s="165"/>
       <c r="AM52" s="284"/>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A53" s="242" t="s">
         <v>309</v>
       </c>
@@ -31436,7 +31465,7 @@
       <c r="AL53" s="165"/>
       <c r="AM53" s="284"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A54" s="242" t="s">
         <v>309</v>
       </c>
@@ -31483,7 +31512,7 @@
       <c r="AL54" s="165"/>
       <c r="AM54" s="284"/>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A55" s="242" t="s">
         <v>309</v>
       </c>
@@ -31532,7 +31561,7 @@
       <c r="AL55" s="165"/>
       <c r="AM55" s="284"/>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A56" s="242" t="s">
         <v>309</v>
       </c>
@@ -31581,7 +31610,7 @@
       <c r="AL56" s="165"/>
       <c r="AM56" s="284"/>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A57" s="242" t="s">
         <v>309</v>
       </c>
@@ -31630,7 +31659,7 @@
       <c r="AL57" s="165"/>
       <c r="AM57" s="284"/>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A58" s="242"/>
       <c r="B58" s="53" t="s">
         <v>309</v>
@@ -31679,7 +31708,7 @@
       <c r="AL58" s="165"/>
       <c r="AM58" s="284"/>
     </row>
-    <row r="59" spans="1:39" s="99" customFormat="1">
+    <row r="59" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="242"/>
       <c r="B59" s="53" t="s">
         <v>309</v>
@@ -31728,7 +31757,7 @@
       <c r="AL59" s="165"/>
       <c r="AM59" s="284"/>
     </row>
-    <row r="60" spans="1:39" s="99" customFormat="1">
+    <row r="60" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="242"/>
       <c r="B60" s="53" t="s">
         <v>309</v>
@@ -31779,7 +31808,7 @@
       <c r="AL60" s="165"/>
       <c r="AM60" s="284"/>
     </row>
-    <row r="61" spans="1:39" s="99" customFormat="1">
+    <row r="61" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="242"/>
       <c r="B61" s="53" t="s">
         <v>309</v>
@@ -31830,7 +31859,7 @@
       <c r="AL61" s="165"/>
       <c r="AM61" s="284"/>
     </row>
-    <row r="62" spans="1:39" s="99" customFormat="1">
+    <row r="62" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="242"/>
       <c r="B62" s="53" t="s">
         <v>309</v>
@@ -31881,7 +31910,7 @@
       <c r="AL62" s="165"/>
       <c r="AM62" s="284"/>
     </row>
-    <row r="63" spans="1:39" s="99" customFormat="1">
+    <row r="63" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="242"/>
       <c r="B63" s="53" t="s">
         <v>309</v>
@@ -31930,7 +31959,7 @@
       <c r="AL63" s="165"/>
       <c r="AM63" s="284"/>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A64" s="242"/>
       <c r="B64" s="53" t="s">
         <v>309</v>
@@ -31981,7 +32010,7 @@
       <c r="AL64" s="165"/>
       <c r="AM64" s="284"/>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A65" s="242"/>
       <c r="B65" s="53" t="s">
         <v>309</v>
@@ -32032,7 +32061,7 @@
       <c r="AL65" s="165"/>
       <c r="AM65" s="284"/>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A66" s="242"/>
       <c r="B66" s="53" t="s">
         <v>309</v>
@@ -32083,7 +32112,7 @@
       <c r="AL66" s="165"/>
       <c r="AM66" s="284"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A67" s="242"/>
       <c r="B67" s="53" t="s">
         <v>309</v>
@@ -32132,7 +32161,7 @@
       <c r="AL67" s="165"/>
       <c r="AM67" s="284"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A68" s="242"/>
       <c r="B68" s="53" t="s">
         <v>309</v>
@@ -32183,7 +32212,7 @@
       <c r="AL68" s="165"/>
       <c r="AM68" s="284"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A69" s="242"/>
       <c r="B69" s="53" t="s">
         <v>309</v>
@@ -32234,7 +32263,7 @@
       <c r="AL69" s="165"/>
       <c r="AM69" s="284"/>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A70" s="242"/>
       <c r="B70" s="53" t="s">
         <v>309</v>
@@ -32285,7 +32314,7 @@
       <c r="AL70" s="165"/>
       <c r="AM70" s="284"/>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A71" s="242"/>
       <c r="B71" s="53" t="s">
         <v>309</v>
@@ -32334,7 +32363,7 @@
       <c r="AL71" s="165"/>
       <c r="AM71" s="284"/>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A72" s="242"/>
       <c r="B72" s="53" t="s">
         <v>309</v>
@@ -32385,7 +32414,7 @@
       <c r="AL72" s="165"/>
       <c r="AM72" s="284"/>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A73" s="242"/>
       <c r="B73" s="53" t="s">
         <v>309</v>
@@ -32436,7 +32465,7 @@
       <c r="AL73" s="165"/>
       <c r="AM73" s="284"/>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A74" s="242"/>
       <c r="B74" s="53" t="s">
         <v>309</v>
@@ -32487,7 +32516,7 @@
       <c r="AL74" s="165"/>
       <c r="AM74" s="284"/>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A75" s="242"/>
       <c r="B75" s="53" t="s">
         <v>309</v>
@@ -32536,7 +32565,7 @@
       <c r="AL75" s="165"/>
       <c r="AM75" s="284"/>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A76" s="242"/>
       <c r="B76" s="53" t="s">
         <v>309</v>
@@ -32587,7 +32616,7 @@
       <c r="AL76" s="165"/>
       <c r="AM76" s="284"/>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A77" s="242"/>
       <c r="B77" s="53" t="s">
         <v>309</v>
@@ -32638,7 +32667,7 @@
       <c r="AL77" s="165"/>
       <c r="AM77" s="284"/>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A78" s="242"/>
       <c r="B78" s="53" t="s">
         <v>309</v>
@@ -32689,7 +32718,7 @@
       <c r="AL78" s="165"/>
       <c r="AM78" s="284"/>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A79" s="242"/>
       <c r="B79" s="53" t="s">
         <v>309</v>
@@ -32738,7 +32767,7 @@
       <c r="AL79" s="165"/>
       <c r="AM79" s="284"/>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A80" s="242"/>
       <c r="B80" s="53" t="s">
         <v>309</v>
@@ -32789,7 +32818,7 @@
       <c r="AL80" s="165"/>
       <c r="AM80" s="284"/>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A81" s="242"/>
       <c r="B81" s="53" t="s">
         <v>309</v>
@@ -32840,7 +32869,7 @@
       <c r="AL81" s="165"/>
       <c r="AM81" s="284"/>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A82" s="242"/>
       <c r="B82" s="53" t="s">
         <v>309</v>
@@ -32891,7 +32920,7 @@
       <c r="AL82" s="165"/>
       <c r="AM82" s="284"/>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A83" s="242"/>
       <c r="B83" s="53" t="s">
         <v>309</v>
@@ -32942,7 +32971,7 @@
       <c r="AL83" s="165"/>
       <c r="AM83" s="284"/>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A84" s="242"/>
       <c r="B84" s="53" t="s">
         <v>309</v>
@@ -32991,7 +33020,7 @@
       <c r="AL84" s="165"/>
       <c r="AM84" s="284"/>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A85" s="242"/>
       <c r="B85" s="53" t="s">
         <v>309</v>
@@ -33042,7 +33071,7 @@
       <c r="AL85" s="165"/>
       <c r="AM85" s="284"/>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A86" s="242"/>
       <c r="B86" s="53" t="s">
         <v>309</v>
@@ -33093,7 +33122,7 @@
       <c r="AL86" s="165"/>
       <c r="AM86" s="284"/>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A87" s="242"/>
       <c r="B87" s="53" t="s">
         <v>309</v>
@@ -33144,7 +33173,7 @@
       <c r="AL87" s="165"/>
       <c r="AM87" s="284"/>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A88" s="242"/>
       <c r="B88" s="53"/>
       <c r="C88" s="53" t="s">
@@ -33193,7 +33222,7 @@
       <c r="AL88" s="165"/>
       <c r="AM88" s="284"/>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A89" s="242"/>
       <c r="B89" s="53"/>
       <c r="C89" s="53" t="s">
@@ -33242,7 +33271,7 @@
       <c r="AL89" s="165"/>
       <c r="AM89" s="284"/>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A90" s="242"/>
       <c r="B90" s="53"/>
       <c r="C90" s="53" t="s">
@@ -33293,7 +33322,7 @@
       <c r="AL90" s="165"/>
       <c r="AM90" s="284"/>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A91" s="242"/>
       <c r="B91" s="53"/>
       <c r="C91" s="53" t="s">
@@ -33319,7 +33348,7 @@
         <v>2</v>
       </c>
       <c r="S91" s="164" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="T91" s="212" t="s">
         <v>300</v>
@@ -33344,7 +33373,7 @@
       <c r="AL91" s="165"/>
       <c r="AM91" s="284"/>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A92" s="242"/>
       <c r="B92" s="53"/>
       <c r="C92" s="53" t="s">
@@ -33395,7 +33424,7 @@
       <c r="AL92" s="165"/>
       <c r="AM92" s="284"/>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A93" s="242"/>
       <c r="B93" s="53" t="s">
         <v>309</v>
@@ -33442,7 +33471,7 @@
       <c r="AL93" s="165"/>
       <c r="AM93" s="284"/>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A94" s="242"/>
       <c r="B94" s="53" t="s">
         <v>309</v>
@@ -33489,7 +33518,7 @@
       <c r="AL94" s="165"/>
       <c r="AM94" s="284"/>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A95" s="242"/>
       <c r="B95" s="53" t="s">
         <v>309</v>
@@ -33538,7 +33567,7 @@
       <c r="AL95" s="165"/>
       <c r="AM95" s="284"/>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A96" s="242"/>
       <c r="B96" s="53" t="s">
         <v>309</v>
@@ -33587,7 +33616,7 @@
       <c r="AL96" s="165"/>
       <c r="AM96" s="284"/>
     </row>
-    <row r="97" spans="1:39" ht="14.25" thickBot="1">
+    <row r="97" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="244"/>
       <c r="B97" s="126" t="s">
         <v>309</v>
@@ -33636,7 +33665,7 @@
       <c r="AL97" s="289"/>
       <c r="AM97" s="290"/>
     </row>
-    <row r="98" spans="1:39" s="99" customFormat="1">
+    <row r="98" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="239" t="s">
         <v>423</v>
       </c>
@@ -33703,7 +33732,7 @@
       <c r="AL98" s="273"/>
       <c r="AM98" s="293"/>
     </row>
-    <row r="99" spans="1:39" s="99" customFormat="1">
+    <row r="99" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="242" t="s">
         <v>309</v>
       </c>
@@ -33768,7 +33797,7 @@
       <c r="AL99" s="165"/>
       <c r="AM99" s="284"/>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A100" s="242" t="s">
         <v>309</v>
       </c>
@@ -33833,7 +33862,7 @@
       <c r="AL100" s="165"/>
       <c r="AM100" s="284"/>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A101" s="242" t="s">
         <v>309</v>
       </c>
@@ -33900,7 +33929,7 @@
       <c r="AL101" s="165"/>
       <c r="AM101" s="284"/>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A102" s="242" t="s">
         <v>309</v>
       </c>
@@ -33967,7 +33996,7 @@
       <c r="AL102" s="165"/>
       <c r="AM102" s="284"/>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="242"/>
       <c r="B103" s="53"/>
       <c r="C103" s="53"/>
@@ -34016,7 +34045,7 @@
       <c r="AL103" s="165"/>
       <c r="AM103" s="284"/>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A104" s="242"/>
       <c r="B104" s="53"/>
       <c r="C104" s="53"/>
@@ -34065,7 +34094,7 @@
       <c r="AL104" s="165"/>
       <c r="AM104" s="284"/>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A105" s="242"/>
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
@@ -34116,7 +34145,7 @@
       <c r="AL105" s="165"/>
       <c r="AM105" s="284"/>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A106" s="242"/>
       <c r="B106" s="53"/>
       <c r="C106" s="53"/>
@@ -34165,7 +34194,7 @@
       <c r="AL106" s="165"/>
       <c r="AM106" s="284"/>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A107" s="242"/>
       <c r="B107" s="53"/>
       <c r="C107" s="53"/>
@@ -34216,7 +34245,7 @@
       <c r="AL107" s="165"/>
       <c r="AM107" s="284"/>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="242"/>
       <c r="B108" s="53"/>
       <c r="C108" s="53"/>
@@ -34267,7 +34296,7 @@
       <c r="AL108" s="165"/>
       <c r="AM108" s="284"/>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A109" s="242"/>
       <c r="B109" s="53"/>
       <c r="C109" s="53"/>
@@ -34316,7 +34345,7 @@
       <c r="AL109" s="165"/>
       <c r="AM109" s="284"/>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A110" s="242"/>
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
@@ -34365,7 +34394,7 @@
       <c r="AL110" s="165"/>
       <c r="AM110" s="284"/>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A111" s="242"/>
       <c r="B111" s="53"/>
       <c r="C111" s="53"/>
@@ -34416,7 +34445,7 @@
       <c r="AL111" s="165"/>
       <c r="AM111" s="284"/>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="242"/>
       <c r="B112" s="53"/>
       <c r="C112" s="53"/>
@@ -34467,7 +34496,7 @@
       <c r="AL112" s="165"/>
       <c r="AM112" s="284"/>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A113" s="242"/>
       <c r="B113" s="53"/>
       <c r="C113" s="53"/>
@@ -34518,7 +34547,7 @@
       <c r="AL113" s="165"/>
       <c r="AM113" s="284"/>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A114" s="242"/>
       <c r="B114" s="53"/>
       <c r="C114" s="53"/>
@@ -34567,7 +34596,7 @@
       <c r="AL114" s="165"/>
       <c r="AM114" s="284"/>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A115" s="242"/>
       <c r="B115" s="53"/>
       <c r="C115" s="53"/>
@@ -34618,7 +34647,7 @@
       <c r="AL115" s="165"/>
       <c r="AM115" s="284"/>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A116" s="242"/>
       <c r="B116" s="53"/>
       <c r="C116" s="53"/>
@@ -34669,7 +34698,7 @@
       <c r="AL116" s="165"/>
       <c r="AM116" s="284"/>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A117" s="242"/>
       <c r="B117" s="53"/>
       <c r="C117" s="53"/>
@@ -34720,7 +34749,7 @@
       <c r="AL117" s="165"/>
       <c r="AM117" s="284"/>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A118" s="242"/>
       <c r="B118" s="53"/>
       <c r="C118" s="53"/>
@@ -34769,7 +34798,7 @@
       <c r="AL118" s="165"/>
       <c r="AM118" s="284"/>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A119" s="242"/>
       <c r="B119" s="53"/>
       <c r="C119" s="53"/>
@@ -34818,7 +34847,7 @@
       <c r="AL119" s="165"/>
       <c r="AM119" s="284"/>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A120" s="242"/>
       <c r="B120" s="53"/>
       <c r="C120" s="53"/>
@@ -34869,7 +34898,7 @@
       <c r="AL120" s="165"/>
       <c r="AM120" s="284"/>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A121" s="242"/>
       <c r="B121" s="53"/>
       <c r="C121" s="53"/>
@@ -34920,7 +34949,7 @@
       <c r="AL121" s="165"/>
       <c r="AM121" s="284"/>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A122" s="242"/>
       <c r="B122" s="53"/>
       <c r="C122" s="53"/>
@@ -34971,7 +35000,7 @@
       <c r="AL122" s="165"/>
       <c r="AM122" s="284"/>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A123" s="242"/>
       <c r="B123" s="53"/>
       <c r="C123" s="53"/>
@@ -35020,7 +35049,7 @@
       <c r="AL123" s="165"/>
       <c r="AM123" s="284"/>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A124" s="242"/>
       <c r="B124" s="53"/>
       <c r="C124" s="53"/>
@@ -35071,7 +35100,7 @@
       <c r="AL124" s="165"/>
       <c r="AM124" s="284"/>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A125" s="242"/>
       <c r="B125" s="53"/>
       <c r="C125" s="53"/>
@@ -35122,7 +35151,7 @@
       <c r="AL125" s="165"/>
       <c r="AM125" s="284"/>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A126" s="242"/>
       <c r="B126" s="53"/>
       <c r="C126" s="53"/>
@@ -35173,7 +35202,7 @@
       <c r="AL126" s="165"/>
       <c r="AM126" s="284"/>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A127" s="242"/>
       <c r="B127" s="53"/>
       <c r="C127" s="53"/>
@@ -35222,7 +35251,7 @@
       <c r="AL127" s="165"/>
       <c r="AM127" s="284"/>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A128" s="242"/>
       <c r="B128" s="53"/>
       <c r="C128" s="53"/>
@@ -35273,7 +35302,7 @@
       <c r="AL128" s="165"/>
       <c r="AM128" s="284"/>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A129" s="242"/>
       <c r="B129" s="53"/>
       <c r="C129" s="53"/>
@@ -35324,7 +35353,7 @@
       <c r="AL129" s="165"/>
       <c r="AM129" s="284"/>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A130" s="242"/>
       <c r="B130" s="53"/>
       <c r="C130" s="53"/>
@@ -35375,7 +35404,7 @@
       <c r="AL130" s="165"/>
       <c r="AM130" s="284"/>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A131" s="242"/>
       <c r="B131" s="53"/>
       <c r="C131" s="53"/>
@@ -35424,7 +35453,7 @@
       <c r="AL131" s="165"/>
       <c r="AM131" s="284"/>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A132" s="242"/>
       <c r="B132" s="53"/>
       <c r="C132" s="53"/>
@@ -35473,7 +35502,7 @@
       <c r="AL132" s="165"/>
       <c r="AM132" s="284"/>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A133" s="242"/>
       <c r="B133" s="53"/>
       <c r="C133" s="53"/>
@@ -35524,7 +35553,7 @@
       <c r="AL133" s="165"/>
       <c r="AM133" s="284"/>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A134" s="242"/>
       <c r="B134" s="53"/>
       <c r="C134" s="53"/>
@@ -35575,7 +35604,7 @@
       <c r="AL134" s="165"/>
       <c r="AM134" s="284"/>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A135" s="242"/>
       <c r="B135" s="53"/>
       <c r="C135" s="53"/>
@@ -35626,7 +35655,7 @@
       <c r="AL135" s="165"/>
       <c r="AM135" s="284"/>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A136" s="242"/>
       <c r="B136" s="53"/>
       <c r="C136" s="53"/>
@@ -35675,7 +35704,7 @@
       <c r="AL136" s="165"/>
       <c r="AM136" s="284"/>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A137" s="242"/>
       <c r="B137" s="53"/>
       <c r="C137" s="53"/>
@@ -35726,7 +35755,7 @@
       <c r="AL137" s="165"/>
       <c r="AM137" s="284"/>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A138" s="242"/>
       <c r="B138" s="53"/>
       <c r="C138" s="53"/>
@@ -35777,7 +35806,7 @@
       <c r="AL138" s="165"/>
       <c r="AM138" s="284"/>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A139" s="242"/>
       <c r="B139" s="53"/>
       <c r="C139" s="53"/>
@@ -35826,7 +35855,7 @@
       <c r="AL139" s="165"/>
       <c r="AM139" s="284"/>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A140" s="242"/>
       <c r="B140" s="53"/>
       <c r="C140" s="53"/>
@@ -35877,7 +35906,7 @@
       <c r="AL140" s="165"/>
       <c r="AM140" s="284"/>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A141" s="242"/>
       <c r="B141" s="53"/>
       <c r="C141" s="53"/>
@@ -35928,7 +35957,7 @@
       <c r="AL141" s="165"/>
       <c r="AM141" s="284"/>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A142" s="242"/>
       <c r="B142" s="53"/>
       <c r="C142" s="53"/>
@@ -35979,7 +36008,7 @@
       <c r="AL142" s="165"/>
       <c r="AM142" s="284"/>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A143" s="242"/>
       <c r="B143" s="53"/>
       <c r="C143" s="53"/>
@@ -36028,7 +36057,7 @@
       <c r="AL143" s="165"/>
       <c r="AM143" s="284"/>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A144" s="242"/>
       <c r="B144" s="53"/>
       <c r="C144" s="53"/>
@@ -36079,7 +36108,7 @@
       <c r="AL144" s="165"/>
       <c r="AM144" s="284"/>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A145" s="242"/>
       <c r="B145" s="53"/>
       <c r="C145" s="53"/>
@@ -36130,7 +36159,7 @@
       <c r="AL145" s="165"/>
       <c r="AM145" s="284"/>
     </row>
-    <row r="146" spans="1:39" s="99" customFormat="1">
+    <row r="146" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="242"/>
       <c r="B146" s="53"/>
       <c r="C146" s="53"/>
@@ -36181,7 +36210,7 @@
       <c r="AL146" s="165"/>
       <c r="AM146" s="284"/>
     </row>
-    <row r="147" spans="1:39" s="99" customFormat="1">
+    <row r="147" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="242"/>
       <c r="B147" s="53"/>
       <c r="C147" s="53"/>
@@ -36230,7 +36259,7 @@
       <c r="AL147" s="165"/>
       <c r="AM147" s="284"/>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A148" s="242"/>
       <c r="B148" s="53"/>
       <c r="C148" s="53"/>
@@ -36279,7 +36308,7 @@
       <c r="AL148" s="165"/>
       <c r="AM148" s="284"/>
     </row>
-    <row r="149" spans="1:39" ht="14.25" thickBot="1">
+    <row r="149" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="244"/>
       <c r="B149" s="126"/>
       <c r="C149" s="126"/>
@@ -36330,7 +36359,7 @@
       <c r="AL149" s="289"/>
       <c r="AM149" s="290"/>
     </row>
-    <row r="150" spans="1:39" s="99" customFormat="1">
+    <row r="150" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="239" t="s">
         <v>309</v>
       </c>
@@ -36391,7 +36420,7 @@
       <c r="AL150" s="273"/>
       <c r="AM150" s="293"/>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A151" s="242" t="s">
         <v>309</v>
       </c>
@@ -36452,7 +36481,7 @@
       <c r="AL151" s="165"/>
       <c r="AM151" s="284"/>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A152" s="242" t="s">
         <v>309</v>
       </c>
@@ -36513,7 +36542,7 @@
       <c r="AL152" s="165"/>
       <c r="AM152" s="284"/>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A153" s="53" t="s">
         <v>309</v>
       </c>
@@ -36576,7 +36605,7 @@
       <c r="AL153" s="165"/>
       <c r="AM153" s="284"/>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A154" s="53" t="s">
         <v>309</v>
       </c>
@@ -36625,7 +36654,7 @@
       <c r="AL154" s="165"/>
       <c r="AM154" s="284"/>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A155" s="242" t="s">
         <v>309</v>
       </c>
@@ -36674,7 +36703,7 @@
       <c r="AL155" s="165"/>
       <c r="AM155" s="284"/>
     </row>
-    <row r="156" spans="1:39" ht="14.25" thickBot="1">
+    <row r="156" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="244" t="s">
         <v>309</v>
       </c>
@@ -36725,7 +36754,7 @@
       <c r="AL156" s="289"/>
       <c r="AM156" s="290"/>
     </row>
-    <row r="157" spans="1:39" s="99" customFormat="1">
+    <row r="157" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="239" t="s">
         <v>309</v>
       </c>
@@ -36790,7 +36819,7 @@
       <c r="AL157" s="273"/>
       <c r="AM157" s="293"/>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A158" s="242" t="s">
         <v>309</v>
       </c>
@@ -36855,7 +36884,7 @@
       <c r="AL158" s="165"/>
       <c r="AM158" s="284"/>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A159" s="242" t="s">
         <v>309</v>
       </c>
@@ -36916,7 +36945,7 @@
       <c r="AL159" s="165"/>
       <c r="AM159" s="284"/>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A160" s="242" t="s">
         <v>309</v>
       </c>
@@ -36979,7 +37008,7 @@
       <c r="AL160" s="165"/>
       <c r="AM160" s="284"/>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A161" s="242" t="s">
         <v>309</v>
       </c>
@@ -37042,7 +37071,7 @@
       <c r="AL161" s="165"/>
       <c r="AM161" s="284"/>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A162" s="242"/>
       <c r="B162" s="53"/>
       <c r="C162" s="53"/>
@@ -37091,7 +37120,7 @@
       <c r="AL162" s="165"/>
       <c r="AM162" s="284"/>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A163" s="242"/>
       <c r="B163" s="53"/>
       <c r="C163" s="53"/>
@@ -37142,7 +37171,7 @@
       <c r="AL163" s="165"/>
       <c r="AM163" s="284"/>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A164" s="242"/>
       <c r="B164" s="53"/>
       <c r="C164" s="53"/>
@@ -37193,7 +37222,7 @@
       <c r="AL164" s="165"/>
       <c r="AM164" s="284"/>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A165" s="242"/>
       <c r="B165" s="53"/>
       <c r="C165" s="53"/>
@@ -37242,7 +37271,7 @@
       <c r="AL165" s="165"/>
       <c r="AM165" s="284"/>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A166" s="242"/>
       <c r="B166" s="53"/>
       <c r="C166" s="53"/>
@@ -37291,7 +37320,7 @@
       <c r="AL166" s="165"/>
       <c r="AM166" s="284"/>
     </row>
-    <row r="167" spans="1:39" ht="14.25" thickBot="1">
+    <row r="167" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="244"/>
       <c r="B167" s="126"/>
       <c r="C167" s="126"/>
@@ -37342,7 +37371,7 @@
       <c r="AL167" s="289"/>
       <c r="AM167" s="290"/>
     </row>
-    <row r="168" spans="1:39" s="99" customFormat="1">
+    <row r="168" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="239" t="s">
         <v>309</v>
       </c>
@@ -37391,7 +37420,7 @@
       <c r="AL168" s="273"/>
       <c r="AM168" s="293"/>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A169" s="242" t="s">
         <v>309</v>
       </c>
@@ -37440,7 +37469,7 @@
       <c r="AL169" s="165"/>
       <c r="AM169" s="284"/>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A170" s="242" t="s">
         <v>309</v>
       </c>
@@ -37489,7 +37518,7 @@
       <c r="AL170" s="165"/>
       <c r="AM170" s="284"/>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A171" s="242" t="s">
         <v>309</v>
       </c>
@@ -37540,7 +37569,7 @@
       <c r="AL171" s="165"/>
       <c r="AM171" s="284"/>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A172" s="242" t="s">
         <v>309</v>
       </c>
@@ -37591,7 +37620,7 @@
       <c r="AL172" s="165"/>
       <c r="AM172" s="284"/>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A173" s="242" t="s">
         <v>309</v>
       </c>
@@ -37640,7 +37669,7 @@
       <c r="AL173" s="165"/>
       <c r="AM173" s="284"/>
     </row>
-    <row r="174" spans="1:39" ht="14.25" thickBot="1">
+    <row r="174" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="244" t="s">
         <v>309</v>
       </c>
@@ -37691,7 +37720,7 @@
       <c r="AL174" s="289"/>
       <c r="AM174" s="290"/>
     </row>
-    <row r="175" spans="1:39" s="99" customFormat="1">
+    <row r="175" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="239" t="s">
         <v>309</v>
       </c>
@@ -37756,7 +37785,7 @@
       <c r="AL175" s="273"/>
       <c r="AM175" s="293"/>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A176" s="242" t="s">
         <v>309</v>
       </c>
@@ -37821,7 +37850,7 @@
       <c r="AL176" s="165"/>
       <c r="AM176" s="284"/>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A177" s="242" t="s">
         <v>309</v>
       </c>
@@ -37882,7 +37911,7 @@
       <c r="AL177" s="165"/>
       <c r="AM177" s="284"/>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A178" s="242" t="s">
         <v>309</v>
       </c>
@@ -37945,7 +37974,7 @@
       <c r="AL178" s="165"/>
       <c r="AM178" s="284"/>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A179" s="242" t="s">
         <v>309</v>
       </c>
@@ -38008,7 +38037,7 @@
       <c r="AL179" s="165"/>
       <c r="AM179" s="284"/>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A180" s="242"/>
       <c r="B180" s="53"/>
       <c r="C180" s="53"/>
@@ -38057,7 +38086,7 @@
       <c r="AL180" s="165"/>
       <c r="AM180" s="284"/>
     </row>
-    <row r="181" spans="1:39" ht="14.25" thickBot="1">
+    <row r="181" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="244"/>
       <c r="B181" s="126"/>
       <c r="C181" s="126"/>
@@ -38108,7 +38137,7 @@
       <c r="AL181" s="289"/>
       <c r="AM181" s="290"/>
     </row>
-    <row r="182" spans="1:39" s="99" customFormat="1">
+    <row r="182" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="239" t="s">
         <v>309</v>
       </c>
@@ -38159,7 +38188,7 @@
       <c r="AL182" s="273"/>
       <c r="AM182" s="293"/>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A183" s="242" t="s">
         <v>309</v>
       </c>
@@ -38210,7 +38239,7 @@
       <c r="AL183" s="165"/>
       <c r="AM183" s="284"/>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A184" s="242" t="s">
         <v>309</v>
       </c>
@@ -38259,7 +38288,7 @@
       <c r="AL184" s="165"/>
       <c r="AM184" s="284"/>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A185" s="242" t="s">
         <v>309</v>
       </c>
@@ -38310,7 +38339,7 @@
       <c r="AL185" s="165"/>
       <c r="AM185" s="284"/>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A186" s="242" t="s">
         <v>309</v>
       </c>
@@ -38361,7 +38390,7 @@
       <c r="AL186" s="165"/>
       <c r="AM186" s="284"/>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A187" s="242"/>
       <c r="B187" s="53" t="s">
         <v>309</v>
@@ -38410,7 +38439,7 @@
       <c r="AL187" s="165"/>
       <c r="AM187" s="284"/>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A188" s="242"/>
       <c r="B188" s="53" t="s">
         <v>309</v>
@@ -38461,7 +38490,7 @@
       <c r="AL188" s="165"/>
       <c r="AM188" s="284"/>
     </row>
-    <row r="189" spans="1:39" ht="14.25" thickBot="1">
+    <row r="189" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="244"/>
       <c r="B189" s="126" t="s">
         <v>309</v>
@@ -38512,7 +38541,7 @@
       <c r="AL189" s="289"/>
       <c r="AM189" s="290"/>
     </row>
-    <row r="190" spans="1:39" s="99" customFormat="1">
+    <row r="190" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="250" t="s">
         <v>309</v>
       </c>
@@ -38561,7 +38590,7 @@
       <c r="AL190" s="273"/>
       <c r="AM190" s="293"/>
     </row>
-    <row r="191" spans="1:39" s="99" customFormat="1">
+    <row r="191" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="250" t="s">
         <v>309</v>
       </c>
@@ -38610,7 +38639,7 @@
       <c r="AL191" s="165"/>
       <c r="AM191" s="284"/>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A192" s="242" t="s">
         <v>309</v>
       </c>
@@ -38659,7 +38688,7 @@
       <c r="AL192" s="165"/>
       <c r="AM192" s="284"/>
     </row>
-    <row r="193" spans="1:46">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A193" s="242" t="s">
         <v>309</v>
       </c>
@@ -38710,7 +38739,7 @@
       <c r="AL193" s="165"/>
       <c r="AM193" s="284"/>
     </row>
-    <row r="194" spans="1:46">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A194" s="242" t="s">
         <v>309</v>
       </c>
@@ -38761,7 +38790,7 @@
       <c r="AL194" s="165"/>
       <c r="AM194" s="284"/>
     </row>
-    <row r="195" spans="1:46" ht="14.25" thickBot="1">
+    <row r="195" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A195" s="244" t="s">
         <v>309</v>
       </c>
@@ -38812,7 +38841,7 @@
       <c r="AL195" s="289"/>
       <c r="AM195" s="290"/>
     </row>
-    <row r="196" spans="1:46">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N196" s="99"/>
       <c r="O196" s="99"/>
       <c r="P196" s="1"/>
@@ -38847,7 +38876,7 @@
       <c r="AS196" s="13"/>
       <c r="AT196" s="13"/>
     </row>
-    <row r="197" spans="1:46">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N197" s="99"/>
       <c r="O197" s="99"/>
       <c r="P197" s="1" t="s">
@@ -38874,7 +38903,7 @@
       <c r="AS197" s="13"/>
       <c r="AT197" s="13"/>
     </row>
-    <row r="198" spans="1:46">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N198" s="99"/>
       <c r="O198" s="99"/>
       <c r="P198" s="1" t="s">
@@ -38902,7 +38931,7 @@
       <c r="AS198" s="13"/>
       <c r="AT198" s="13"/>
     </row>
-    <row r="199" spans="1:46" ht="25.9" customHeight="1">
+    <row r="199" spans="1:46" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N199" s="99"/>
       <c r="O199" s="99"/>
       <c r="P199" s="348"/>
@@ -38922,7 +38951,7 @@
       <c r="AB199" s="352"/>
       <c r="AC199" s="352"/>
     </row>
-    <row r="200" spans="1:46" ht="25.9" customHeight="1">
+    <row r="200" spans="1:46" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N200" s="99"/>
       <c r="O200" s="99"/>
       <c r="P200" s="351"/>
@@ -38942,7 +38971,7 @@
       <c r="AB200" s="352"/>
       <c r="AC200" s="352"/>
     </row>
-    <row r="201" spans="1:46" ht="25.9" customHeight="1">
+    <row r="201" spans="1:46" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N201" s="99"/>
       <c r="O201" s="99"/>
       <c r="P201" s="351"/>
@@ -38962,7 +38991,7 @@
       <c r="AB201" s="352"/>
       <c r="AC201" s="352"/>
     </row>
-    <row r="202" spans="1:46" ht="25.9" customHeight="1">
+    <row r="202" spans="1:46" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N202" s="99"/>
       <c r="O202" s="99"/>
       <c r="P202" s="1"/>
@@ -38981,7 +39010,7 @@
       <c r="AC202" s="352"/>
       <c r="AN202" s="13"/>
     </row>
-    <row r="203" spans="1:46">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N203" s="99"/>
       <c r="O203" s="99"/>
       <c r="P203" s="1"/>
@@ -39012,7 +39041,7 @@
       <c r="AI203" s="9"/>
       <c r="AN203" s="13"/>
     </row>
-    <row r="204" spans="1:46">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N204" s="99"/>
       <c r="O204" s="99"/>
       <c r="P204" s="29"/>
@@ -39046,7 +39075,7 @@
       <c r="AL204" s="1"/>
       <c r="AM204" s="1"/>
     </row>
-    <row r="205" spans="1:46">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.15">
       <c r="N205" s="99"/>
       <c r="O205" s="99"/>
       <c r="P205" s="29"/>
@@ -39086,7 +39115,7 @@
       <c r="AL205" s="1"/>
       <c r="AM205" s="1"/>
     </row>
-    <row r="206" spans="1:46" ht="24">
+    <row r="206" spans="1:46" ht="24" x14ac:dyDescent="0.15">
       <c r="N206" s="99"/>
       <c r="O206" s="99"/>
       <c r="P206" s="29"/>
@@ -39126,7 +39155,7 @@
       <c r="AL206" s="1"/>
       <c r="AM206" s="1"/>
     </row>
-    <row r="207" spans="1:46" ht="32.25" customHeight="1">
+    <row r="207" spans="1:46" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N207" s="99"/>
       <c r="O207" s="99"/>
       <c r="P207" s="1"/>
@@ -39166,7 +39195,7 @@
       <c r="AL207" s="1"/>
       <c r="AM207" s="1"/>
     </row>
-    <row r="208" spans="1:46" ht="35.25" customHeight="1">
+    <row r="208" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N208" s="99"/>
       <c r="O208" s="99"/>
       <c r="P208" s="1"/>
@@ -39206,7 +39235,7 @@
       <c r="AL208" s="1"/>
       <c r="AM208" s="1"/>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N209" s="99"/>
       <c r="O209" s="99"/>
       <c r="P209" s="1"/>
@@ -39242,7 +39271,7 @@
       <c r="AL209" s="1"/>
       <c r="AM209" s="1"/>
     </row>
-    <row r="210" spans="1:39" ht="18" customHeight="1">
+    <row r="210" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N210" s="99"/>
       <c r="O210" s="99"/>
       <c r="P210" s="1"/>
@@ -39270,7 +39299,7 @@
       <c r="AL210" s="1"/>
       <c r="AM210" s="1"/>
     </row>
-    <row r="211" spans="1:39" s="13" customFormat="1">
+    <row r="211" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="99"/>
       <c r="B211" s="99"/>
       <c r="C211" s="99"/>
@@ -39312,7 +39341,7 @@
       <c r="AH211" s="12"/>
       <c r="AI211" s="24"/>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N212" s="99"/>
       <c r="O212" s="99"/>
       <c r="U212" s="357" t="s">
@@ -39337,7 +39366,7 @@
       <c r="AH212" s="352"/>
       <c r="AI212" s="358"/>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N213" s="99"/>
       <c r="O213" s="99"/>
       <c r="U213" s="357" t="s">
@@ -39360,7 +39389,7 @@
       <c r="AH213" s="352"/>
       <c r="AI213" s="358"/>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N214" s="99"/>
       <c r="O214" s="99"/>
       <c r="U214" s="357" t="s">
@@ -39383,7 +39412,7 @@
       <c r="AH214" s="352"/>
       <c r="AI214" s="358"/>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N215" s="99"/>
       <c r="O215" s="99"/>
       <c r="U215" s="357" t="s">
@@ -39406,7 +39435,7 @@
       <c r="AH215" s="352"/>
       <c r="AI215" s="358"/>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N216" s="99"/>
       <c r="O216" s="99"/>
       <c r="U216" s="359" t="s">
@@ -39429,119 +39458,119 @@
       <c r="AH216" s="377"/>
       <c r="AI216" s="378"/>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N217" s="99"/>
       <c r="O217" s="99"/>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N218" s="99"/>
       <c r="O218" s="99"/>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N219" s="99"/>
       <c r="O219" s="99"/>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N220" s="99"/>
       <c r="O220" s="99"/>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N221" s="99"/>
       <c r="O221" s="99"/>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N222" s="99"/>
       <c r="O222" s="99"/>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N223" s="99"/>
       <c r="O223" s="99"/>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.15">
       <c r="N224" s="99"/>
       <c r="O224" s="99"/>
     </row>
-    <row r="225" spans="14:15">
+    <row r="225" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N225" s="99"/>
       <c r="O225" s="99"/>
     </row>
-    <row r="226" spans="14:15">
+    <row r="226" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N226" s="99"/>
       <c r="O226" s="99"/>
     </row>
-    <row r="227" spans="14:15">
+    <row r="227" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N227" s="99"/>
       <c r="O227" s="99"/>
     </row>
-    <row r="228" spans="14:15">
+    <row r="228" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N228" s="99"/>
       <c r="O228" s="99"/>
     </row>
-    <row r="229" spans="14:15">
+    <row r="229" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N229" s="99"/>
       <c r="O229" s="99"/>
     </row>
-    <row r="230" spans="14:15">
+    <row r="230" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N230" s="99"/>
       <c r="O230" s="99"/>
     </row>
-    <row r="231" spans="14:15">
+    <row r="231" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N231" s="99"/>
       <c r="O231" s="99"/>
     </row>
-    <row r="232" spans="14:15">
+    <row r="232" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N232" s="99"/>
       <c r="O232" s="99"/>
     </row>
-    <row r="233" spans="14:15">
+    <row r="233" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N233" s="99"/>
       <c r="O233" s="99"/>
     </row>
-    <row r="234" spans="14:15">
+    <row r="234" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N234" s="99"/>
       <c r="O234" s="99"/>
     </row>
-    <row r="235" spans="14:15">
+    <row r="235" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N235" s="99"/>
       <c r="O235" s="99"/>
     </row>
-    <row r="236" spans="14:15">
+    <row r="236" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N236" s="99"/>
       <c r="O236" s="99"/>
     </row>
-    <row r="237" spans="14:15">
+    <row r="237" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N237" s="99"/>
       <c r="O237" s="99"/>
     </row>
-    <row r="238" spans="14:15">
+    <row r="238" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N238" s="99"/>
       <c r="O238" s="99"/>
     </row>
-    <row r="239" spans="14:15">
+    <row r="239" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N239" s="99"/>
       <c r="O239" s="99"/>
     </row>
-    <row r="240" spans="14:15">
+    <row r="240" spans="14:15" x14ac:dyDescent="0.15">
       <c r="N240" s="99"/>
       <c r="O240" s="99"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N241" s="99"/>
       <c r="O241" s="99"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N242" s="99"/>
       <c r="O242" s="99"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N243" s="99"/>
       <c r="O243" s="99"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N244" s="99"/>
       <c r="O244" s="99"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -39556,7 +39585,7 @@
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -39571,7 +39600,7 @@
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -39586,7 +39615,7 @@
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -39601,7 +39630,7 @@
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -39616,7 +39645,7 @@
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -39631,7 +39660,7 @@
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -39646,7 +39675,7 @@
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -39655,7 +39684,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -39664,7 +39693,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -39673,7 +39702,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -39682,7 +39711,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -39691,7 +39720,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -39700,7 +39729,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -39709,7 +39738,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -39718,7 +39747,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -39728,7 +39757,7 @@
       <c r="G274" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A18:K195"/>
+  <autoFilter ref="A18:K195" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="255">
     <mergeCell ref="L1:S2"/>
     <mergeCell ref="L3:P4"/>
@@ -39988,16 +40017,16 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:V195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:V195" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$U$212:$U$216</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19:U195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U19:U195" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$U$205:$U$209</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD19:AD195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD19:AD195" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$AD$205:$AD$208</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG19:AG195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG19:AG195" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>$AF$205:$AF$209</formula1>
     </dataValidation>
   </dataValidations>
